--- a/Validation_Output/model_metrics_evaluation.xlsx
+++ b/Validation_Output/model_metrics_evaluation.xlsx
@@ -4231,14 +4231,14 @@
         <v>0.0</v>
       </c>
       <c r="N29" s="31">
-        <f t="shared" ref="N29:N30" si="133">F29</f>
+        <f>F29</f>
         <v>0</v>
       </c>
       <c r="O29" s="33">
         <v>5.0</v>
       </c>
       <c r="P29" s="33">
-        <f t="shared" ref="P29:P30" si="134">G29</f>
+        <f t="shared" ref="P29:P30" si="133">G29</f>
         <v>5</v>
       </c>
       <c r="Q29" s="34">
@@ -4289,28 +4289,28 @@
         <v>2.0</v>
       </c>
       <c r="AD29" s="29">
-        <f t="shared" ref="AD29:AD30" si="137">D29</f>
+        <f t="shared" ref="AD29:AD30" si="136">D29</f>
         <v>2</v>
       </c>
       <c r="AE29" s="35">
         <v>1.0</v>
       </c>
       <c r="AF29" s="30">
-        <f t="shared" ref="AF29:AF30" si="138">E29</f>
+        <f t="shared" ref="AF29:AF30" si="137">E29</f>
         <v>1</v>
       </c>
       <c r="AG29" s="51">
         <v>0.0</v>
       </c>
       <c r="AH29" s="31">
-        <f t="shared" ref="AH29:AH30" si="139">F29</f>
+        <f>F29</f>
         <v>0</v>
       </c>
       <c r="AI29" s="33">
         <v>5.0</v>
       </c>
       <c r="AJ29" s="33">
-        <f t="shared" ref="AJ29:AJ30" si="140">G29</f>
+        <f t="shared" ref="AJ29:AJ30" si="138">G29</f>
         <v>5</v>
       </c>
       <c r="AK29" s="34">
@@ -4393,26 +4393,25 @@
         <v>2</v>
       </c>
       <c r="M30" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="N30" s="31">
-        <f t="shared" si="133"/>
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="N30" s="51">
+        <v>2.0</v>
       </c>
       <c r="O30" s="32">
         <v>6.0</v>
       </c>
       <c r="P30" s="32">
+        <f t="shared" si="133"/>
+        <v>6</v>
+      </c>
+      <c r="Q30" s="34">
+        <f t="shared" ref="Q30:R30" si="134">SUM(I30,K30,M30,O30)</f>
+        <v>13</v>
+      </c>
+      <c r="R30" s="34">
         <f t="shared" si="134"/>
-        <v>6</v>
-      </c>
-      <c r="Q30" s="34">
-        <f t="shared" ref="Q30:R30" si="135">SUM(I30,K30,M30,O30)</f>
-        <v>11</v>
-      </c>
-      <c r="R30" s="34">
-        <f t="shared" si="135"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S30" s="36">
         <v>3.0</v>
@@ -4429,7 +4428,7 @@
         <v>2</v>
       </c>
       <c r="W30" s="51">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="X30" s="31">
         <f>$F$60</f>
@@ -4443,48 +4442,47 @@
         <v>7</v>
       </c>
       <c r="AA30" s="34">
-        <f t="shared" ref="AA30:AB30" si="136">SUM(S30,U30,W30,Y30)</f>
-        <v>12</v>
+        <f t="shared" ref="AA30:AB30" si="135">SUM(S30,U30,W30,Y30)</f>
+        <v>15</v>
       </c>
       <c r="AB30" s="34">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>15</v>
       </c>
       <c r="AC30" s="36">
         <v>3.0</v>
       </c>
       <c r="AD30" s="29">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>3</v>
       </c>
       <c r="AE30" s="35">
         <v>2.0</v>
       </c>
       <c r="AF30" s="35">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>2</v>
       </c>
       <c r="AG30" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="AH30" s="31">
-        <f t="shared" si="139"/>
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="AH30" s="51">
+        <v>2.0</v>
       </c>
       <c r="AI30" s="32">
         <v>6.0</v>
       </c>
       <c r="AJ30" s="32">
-        <f t="shared" si="140"/>
+        <f t="shared" si="138"/>
         <v>6</v>
       </c>
       <c r="AK30" s="34">
-        <f t="shared" ref="AK30:AL30" si="141">SUM(AC30,AE30,AG30,AI30)</f>
-        <v>11</v>
+        <f t="shared" ref="AK30:AL30" si="139">SUM(AC30,AE30,AG30,AI30)</f>
+        <v>13</v>
       </c>
       <c r="AL30" s="34">
-        <f t="shared" si="141"/>
-        <v>11</v>
+        <f t="shared" si="139"/>
+        <v>13</v>
       </c>
       <c r="AM30" s="36">
         <v>3.0</v>
@@ -4515,11 +4513,11 @@
         <v>7</v>
       </c>
       <c r="AU30" s="34">
-        <f t="shared" ref="AU30:AV30" si="142">SUM(AM30,AO30,AQ30,AS30)</f>
+        <f t="shared" ref="AU30:AV30" si="140">SUM(AM30,AO30,AQ30,AS30)</f>
         <v>14</v>
       </c>
       <c r="AV30" s="34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="140"/>
         <v>15</v>
       </c>
     </row>
@@ -4528,183 +4526,183 @@
         <v>8</v>
       </c>
       <c r="D31" s="24">
-        <f t="shared" ref="D31:P31" si="143">SUM(D29:D30)</f>
+        <f t="shared" ref="D31:P31" si="141">SUM(D29:D30)</f>
         <v>5</v>
       </c>
       <c r="E31" s="25">
+        <f t="shared" si="141"/>
+        <v>3</v>
+      </c>
+      <c r="F31" s="26">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="27">
+        <f t="shared" si="141"/>
+        <v>11</v>
+      </c>
+      <c r="H31" s="38">
+        <f t="shared" si="141"/>
+        <v>19</v>
+      </c>
+      <c r="I31" s="29">
+        <f t="shared" si="141"/>
+        <v>5</v>
+      </c>
+      <c r="J31" s="29">
+        <f t="shared" si="141"/>
+        <v>5</v>
+      </c>
+      <c r="K31" s="30">
+        <f t="shared" si="141"/>
+        <v>3</v>
+      </c>
+      <c r="L31" s="30">
+        <f t="shared" si="141"/>
+        <v>3</v>
+      </c>
+      <c r="M31" s="31">
+        <f t="shared" si="141"/>
+        <v>2</v>
+      </c>
+      <c r="N31" s="31">
+        <f t="shared" si="141"/>
+        <v>2</v>
+      </c>
+      <c r="O31" s="33">
+        <f t="shared" si="141"/>
+        <v>11</v>
+      </c>
+      <c r="P31" s="33">
+        <f t="shared" si="141"/>
+        <v>11</v>
+      </c>
+      <c r="Q31" s="34">
+        <f t="shared" ref="Q31:R31" si="142">SUM(I31,K31,M31,O31)</f>
+        <v>21</v>
+      </c>
+      <c r="R31" s="34">
+        <f t="shared" si="142"/>
+        <v>21</v>
+      </c>
+      <c r="S31" s="29">
+        <f t="shared" ref="S31:Z31" si="143">SUM(S29:S30)</f>
+        <v>5</v>
+      </c>
+      <c r="T31" s="29">
         <f t="shared" si="143"/>
-        <v>3</v>
-      </c>
-      <c r="F31" s="26">
+        <v>5</v>
+      </c>
+      <c r="U31" s="30">
         <f t="shared" si="143"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="27">
+        <v>3</v>
+      </c>
+      <c r="V31" s="30">
         <f t="shared" si="143"/>
+        <v>3</v>
+      </c>
+      <c r="W31" s="31">
+        <f t="shared" si="143"/>
+        <v>4</v>
+      </c>
+      <c r="X31" s="31">
+        <f t="shared" si="143"/>
+        <v>4</v>
+      </c>
+      <c r="Y31" s="33">
+        <f t="shared" si="143"/>
+        <v>12</v>
+      </c>
+      <c r="Z31" s="33">
+        <f t="shared" si="143"/>
+        <v>12</v>
+      </c>
+      <c r="AA31" s="34">
+        <f t="shared" ref="AA31:AB31" si="144">SUM(S31,U31,W31,Y31)</f>
+        <v>24</v>
+      </c>
+      <c r="AB31" s="34">
+        <f t="shared" si="144"/>
+        <v>24</v>
+      </c>
+      <c r="AC31" s="29">
+        <f t="shared" ref="AC31:AJ31" si="145">SUM(AC29:AC30)</f>
+        <v>5</v>
+      </c>
+      <c r="AD31" s="29">
+        <f t="shared" si="145"/>
+        <v>5</v>
+      </c>
+      <c r="AE31" s="30">
+        <f t="shared" si="145"/>
+        <v>3</v>
+      </c>
+      <c r="AF31" s="30">
+        <f t="shared" si="145"/>
+        <v>3</v>
+      </c>
+      <c r="AG31" s="31">
+        <f t="shared" si="145"/>
+        <v>2</v>
+      </c>
+      <c r="AH31" s="31">
+        <f t="shared" si="145"/>
+        <v>2</v>
+      </c>
+      <c r="AI31" s="33">
+        <f t="shared" si="145"/>
         <v>11</v>
       </c>
-      <c r="H31" s="38">
-        <f t="shared" si="143"/>
-        <v>19</v>
-      </c>
-      <c r="I31" s="29">
-        <f t="shared" si="143"/>
-        <v>5</v>
-      </c>
-      <c r="J31" s="29">
-        <f t="shared" si="143"/>
-        <v>5</v>
-      </c>
-      <c r="K31" s="30">
-        <f t="shared" si="143"/>
-        <v>3</v>
-      </c>
-      <c r="L31" s="30">
-        <f t="shared" si="143"/>
-        <v>3</v>
-      </c>
-      <c r="M31" s="31">
-        <f t="shared" si="143"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="31">
-        <f t="shared" si="143"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="33">
-        <f t="shared" si="143"/>
+      <c r="AJ31" s="33">
+        <f t="shared" si="145"/>
         <v>11</v>
       </c>
-      <c r="P31" s="33">
-        <f t="shared" si="143"/>
-        <v>11</v>
-      </c>
-      <c r="Q31" s="34">
-        <f t="shared" ref="Q31:R31" si="144">SUM(I31,K31,M31,O31)</f>
-        <v>19</v>
-      </c>
-      <c r="R31" s="34">
-        <f t="shared" si="144"/>
-        <v>19</v>
-      </c>
-      <c r="S31" s="29">
-        <f t="shared" ref="S31:Z31" si="145">SUM(S29:S30)</f>
-        <v>5</v>
-      </c>
-      <c r="T31" s="29">
-        <f t="shared" si="145"/>
-        <v>5</v>
-      </c>
-      <c r="U31" s="30">
-        <f t="shared" si="145"/>
-        <v>3</v>
-      </c>
-      <c r="V31" s="30">
-        <f t="shared" si="145"/>
-        <v>3</v>
-      </c>
-      <c r="W31" s="31">
-        <f t="shared" si="145"/>
-        <v>1</v>
-      </c>
-      <c r="X31" s="31">
-        <f t="shared" si="145"/>
+      <c r="AK31" s="34">
+        <f t="shared" ref="AK31:AL31" si="146">SUM(AC31,AE31,AG31,AI31)</f>
+        <v>21</v>
+      </c>
+      <c r="AL31" s="34">
+        <f t="shared" si="146"/>
+        <v>21</v>
+      </c>
+      <c r="AM31" s="29">
+        <f t="shared" ref="AM31:AT31" si="147">SUM(AM29:AM30)</f>
+        <v>5</v>
+      </c>
+      <c r="AN31" s="29">
+        <f t="shared" si="147"/>
+        <v>5</v>
+      </c>
+      <c r="AO31" s="30">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="AP31" s="30">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="AQ31" s="31">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="AR31" s="31">
+        <f t="shared" si="147"/>
         <v>4</v>
       </c>
-      <c r="Y31" s="33">
-        <f t="shared" si="145"/>
+      <c r="AS31" s="33">
+        <f t="shared" si="147"/>
         <v>12</v>
       </c>
-      <c r="Z31" s="33">
-        <f t="shared" si="145"/>
+      <c r="AT31" s="33">
+        <f t="shared" si="147"/>
         <v>12</v>
       </c>
-      <c r="AA31" s="34">
-        <f t="shared" ref="AA31:AB31" si="146">SUM(S31,U31,W31,Y31)</f>
-        <v>21</v>
-      </c>
-      <c r="AB31" s="34">
-        <f t="shared" si="146"/>
-        <v>24</v>
-      </c>
-      <c r="AC31" s="29">
-        <f t="shared" ref="AC31:AJ31" si="147">SUM(AC29:AC30)</f>
-        <v>5</v>
-      </c>
-      <c r="AD31" s="29">
-        <f t="shared" si="147"/>
-        <v>5</v>
-      </c>
-      <c r="AE31" s="30">
-        <f t="shared" si="147"/>
-        <v>3</v>
-      </c>
-      <c r="AF31" s="30">
-        <f t="shared" si="147"/>
-        <v>3</v>
-      </c>
-      <c r="AG31" s="31">
-        <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="31">
-        <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="33">
-        <f t="shared" si="147"/>
-        <v>11</v>
-      </c>
-      <c r="AJ31" s="33">
-        <f t="shared" si="147"/>
-        <v>11</v>
-      </c>
-      <c r="AK31" s="34">
-        <f t="shared" ref="AK31:AL31" si="148">SUM(AC31,AE31,AG31,AI31)</f>
-        <v>19</v>
-      </c>
-      <c r="AL31" s="34">
+      <c r="AU31" s="34">
+        <f t="shared" ref="AU31:AV31" si="148">SUM(AM31,AO31,AQ31,AS31)</f>
+        <v>22</v>
+      </c>
+      <c r="AV31" s="34">
         <f t="shared" si="148"/>
-        <v>19</v>
-      </c>
-      <c r="AM31" s="29">
-        <f t="shared" ref="AM31:AT31" si="149">SUM(AM29:AM30)</f>
-        <v>5</v>
-      </c>
-      <c r="AN31" s="29">
-        <f t="shared" si="149"/>
-        <v>5</v>
-      </c>
-      <c r="AO31" s="30">
-        <f t="shared" si="149"/>
-        <v>3</v>
-      </c>
-      <c r="AP31" s="30">
-        <f t="shared" si="149"/>
-        <v>3</v>
-      </c>
-      <c r="AQ31" s="31">
-        <f t="shared" si="149"/>
-        <v>2</v>
-      </c>
-      <c r="AR31" s="31">
-        <f t="shared" si="149"/>
-        <v>4</v>
-      </c>
-      <c r="AS31" s="33">
-        <f t="shared" si="149"/>
-        <v>12</v>
-      </c>
-      <c r="AT31" s="33">
-        <f t="shared" si="149"/>
-        <v>12</v>
-      </c>
-      <c r="AU31" s="34">
-        <f t="shared" ref="AU31:AV31" si="150">SUM(AM31,AO31,AQ31,AS31)</f>
-        <v>22</v>
-      </c>
-      <c r="AV31" s="34">
-        <f t="shared" si="150"/>
         <v>24</v>
       </c>
     </row>
@@ -4727,7 +4725,7 @@
       </c>
       <c r="M32" s="43">
         <f>M31/MAX(1,N31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="44">
         <f>O31/MAX(1,P31)</f>
@@ -4747,7 +4745,7 @@
       </c>
       <c r="W32" s="43">
         <f>W31/MAX(1,X31)</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="44">
         <f>Y31/MAX(1,Z31)</f>
@@ -4755,7 +4753,7 @@
       </c>
       <c r="AA32" s="45">
         <f>AA31/MAX(1,AB31)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="41">
         <f>AC31/MAX(1,AD31)</f>
@@ -4767,7 +4765,7 @@
       </c>
       <c r="AG32" s="43">
         <f>AG31/MAX(1,AH31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" s="44">
         <f>AI31/MAX(1,AJ31)</f>
@@ -4864,117 +4862,117 @@
         <v>5.0</v>
       </c>
       <c r="H34" s="28">
-        <f t="shared" ref="H34:H35" si="155">SUM(D34:G34)</f>
+        <f t="shared" ref="H34:H35" si="153">SUM(D34:G34)</f>
         <v>8</v>
       </c>
       <c r="I34" s="36">
         <v>2.0</v>
       </c>
       <c r="J34" s="36">
-        <f t="shared" ref="J34:J35" si="156">D34</f>
+        <f t="shared" ref="J34:J35" si="154">D34</f>
         <v>2</v>
       </c>
       <c r="K34" s="35">
         <v>0.0</v>
       </c>
       <c r="L34" s="30">
-        <f t="shared" ref="L34:L35" si="157">E34</f>
+        <f t="shared" ref="L34:L35" si="155">E34</f>
         <v>0</v>
       </c>
       <c r="M34" s="51">
         <v>1.0</v>
       </c>
       <c r="N34" s="31">
-        <f t="shared" ref="N34:N35" si="158">F34</f>
+        <f t="shared" ref="N34:N35" si="156">F34</f>
         <v>1</v>
       </c>
       <c r="O34" s="33">
         <v>5.0</v>
       </c>
       <c r="P34" s="33">
-        <f t="shared" ref="P34:P35" si="159">G34</f>
+        <f t="shared" ref="P34:P35" si="157">G34</f>
         <v>5</v>
       </c>
       <c r="Q34" s="34">
-        <f t="shared" ref="Q34:R34" si="151">SUM(I34,K34,M34,O34)</f>
+        <f t="shared" ref="Q34:R34" si="149">SUM(I34,K34,M34,O34)</f>
         <v>8</v>
       </c>
       <c r="R34" s="34">
+        <f t="shared" si="149"/>
+        <v>8</v>
+      </c>
+      <c r="S34" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="T34" s="29">
+        <f>$D$59</f>
+        <v>2</v>
+      </c>
+      <c r="U34" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="V34" s="30">
+        <f>$E$59</f>
+        <v>1</v>
+      </c>
+      <c r="W34" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="X34" s="31">
+        <f>$F$59</f>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="Z34" s="33">
+        <f>$G$59</f>
+        <v>5</v>
+      </c>
+      <c r="AA34" s="34">
+        <f t="shared" ref="AA34:AB34" si="150">SUM(S34,U34,W34,Y34)</f>
+        <v>8</v>
+      </c>
+      <c r="AB34" s="34">
+        <f t="shared" si="150"/>
+        <v>9</v>
+      </c>
+      <c r="AC34" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="AD34" s="29">
+        <f t="shared" ref="AD34:AD35" si="160">D34</f>
+        <v>2</v>
+      </c>
+      <c r="AE34" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="AF34" s="30">
+        <f t="shared" ref="AF34:AF35" si="161">E34</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="AH34" s="31">
+        <f t="shared" ref="AH34:AH35" si="162">F34</f>
+        <v>1</v>
+      </c>
+      <c r="AI34" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="AJ34" s="33">
+        <f t="shared" ref="AJ34:AJ35" si="163">G34</f>
+        <v>5</v>
+      </c>
+      <c r="AK34" s="34">
+        <f t="shared" ref="AK34:AL34" si="151">SUM(AC34,AE34,AG34,AI34)</f>
+        <v>8</v>
+      </c>
+      <c r="AL34" s="34">
         <f t="shared" si="151"/>
         <v>8</v>
       </c>
-      <c r="S34" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="T34" s="29">
-        <f>$D$59</f>
-        <v>2</v>
-      </c>
-      <c r="U34" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="V34" s="30">
-        <f>$E$59</f>
-        <v>1</v>
-      </c>
-      <c r="W34" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="X34" s="31">
-        <f>$F$59</f>
-        <v>1</v>
-      </c>
-      <c r="Y34" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="Z34" s="33">
-        <f>$G$59</f>
-        <v>5</v>
-      </c>
-      <c r="AA34" s="34">
-        <f t="shared" ref="AA34:AB34" si="152">SUM(S34,U34,W34,Y34)</f>
-        <v>8</v>
-      </c>
-      <c r="AB34" s="34">
-        <f t="shared" si="152"/>
-        <v>9</v>
-      </c>
-      <c r="AC34" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="AD34" s="29">
-        <f t="shared" ref="AD34:AD35" si="162">D34</f>
-        <v>2</v>
-      </c>
-      <c r="AE34" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="AF34" s="30">
-        <f t="shared" ref="AF34:AF35" si="163">E34</f>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="AH34" s="31">
-        <f t="shared" ref="AH34:AH35" si="164">F34</f>
-        <v>1</v>
-      </c>
-      <c r="AI34" s="33">
-        <v>5.0</v>
-      </c>
-      <c r="AJ34" s="33">
-        <f t="shared" ref="AJ34:AJ35" si="165">G34</f>
-        <v>5</v>
-      </c>
-      <c r="AK34" s="34">
-        <f t="shared" ref="AK34:AL34" si="153">SUM(AC34,AE34,AG34,AI34)</f>
-        <v>8</v>
-      </c>
-      <c r="AL34" s="34">
-        <f t="shared" si="153"/>
-        <v>8</v>
-      </c>
       <c r="AM34" s="36">
         <v>2.0</v>
       </c>
@@ -5004,11 +5002,11 @@
         <v>5</v>
       </c>
       <c r="AU34" s="34">
-        <f t="shared" ref="AU34:AV34" si="154">SUM(AM34,AO34,AQ34,AS34)</f>
+        <f t="shared" ref="AU34:AV34" si="152">SUM(AM34,AO34,AQ34,AS34)</f>
         <v>8</v>
       </c>
       <c r="AV34" s="34">
-        <f t="shared" si="154"/>
+        <f t="shared" si="152"/>
         <v>9</v>
       </c>
     </row>
@@ -5029,43 +5027,43 @@
         <v>7.0</v>
       </c>
       <c r="H35" s="28">
-        <f t="shared" si="155"/>
+        <f t="shared" si="153"/>
         <v>12</v>
       </c>
       <c r="I35" s="36">
         <v>3.0</v>
       </c>
       <c r="J35" s="36">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>3</v>
       </c>
       <c r="K35" s="35">
         <v>1.0</v>
       </c>
       <c r="L35" s="35">
-        <f t="shared" si="157"/>
+        <f t="shared" si="155"/>
         <v>1</v>
       </c>
       <c r="M35" s="51">
         <v>1.0</v>
       </c>
       <c r="N35" s="31">
-        <f t="shared" si="158"/>
+        <f t="shared" si="156"/>
         <v>1</v>
       </c>
       <c r="O35" s="32">
         <v>7.0</v>
       </c>
       <c r="P35" s="32">
-        <f t="shared" si="159"/>
+        <f t="shared" si="157"/>
         <v>7</v>
       </c>
       <c r="Q35" s="34">
-        <f t="shared" ref="Q35:R35" si="160">SUM(I35,K35,M35,O35)</f>
+        <f t="shared" ref="Q35:R35" si="158">SUM(I35,K35,M35,O35)</f>
         <v>12</v>
       </c>
       <c r="R35" s="34">
-        <f t="shared" si="160"/>
+        <f t="shared" si="158"/>
         <v>12</v>
       </c>
       <c r="S35" s="36">
@@ -5097,47 +5095,47 @@
         <v>7</v>
       </c>
       <c r="AA35" s="34">
-        <f t="shared" ref="AA35:AB35" si="161">SUM(S35,U35,W35,Y35)</f>
+        <f t="shared" ref="AA35:AB35" si="159">SUM(S35,U35,W35,Y35)</f>
         <v>15</v>
       </c>
       <c r="AB35" s="34">
-        <f t="shared" si="161"/>
+        <f t="shared" si="159"/>
         <v>15</v>
       </c>
       <c r="AC35" s="36">
         <v>3.0</v>
       </c>
       <c r="AD35" s="29">
-        <f t="shared" si="162"/>
+        <f t="shared" si="160"/>
         <v>3</v>
       </c>
       <c r="AE35" s="35">
         <v>1.0</v>
       </c>
       <c r="AF35" s="35">
-        <f t="shared" si="163"/>
+        <f t="shared" si="161"/>
         <v>1</v>
       </c>
       <c r="AG35" s="51">
         <v>1.0</v>
       </c>
       <c r="AH35" s="31">
-        <f t="shared" si="164"/>
+        <f t="shared" si="162"/>
         <v>1</v>
       </c>
       <c r="AI35" s="32">
         <v>7.0</v>
       </c>
       <c r="AJ35" s="32">
-        <f t="shared" si="165"/>
+        <f t="shared" si="163"/>
         <v>7</v>
       </c>
       <c r="AK35" s="34">
-        <f t="shared" ref="AK35:AL35" si="166">SUM(AC35,AE35,AG35,AI35)</f>
+        <f t="shared" ref="AK35:AL35" si="164">SUM(AC35,AE35,AG35,AI35)</f>
         <v>12</v>
       </c>
       <c r="AL35" s="34">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>12</v>
       </c>
       <c r="AM35" s="36">
@@ -5169,11 +5167,11 @@
         <v>7</v>
       </c>
       <c r="AU35" s="34">
-        <f t="shared" ref="AU35:AV35" si="167">SUM(AM35,AO35,AQ35,AS35)</f>
+        <f t="shared" ref="AU35:AV35" si="165">SUM(AM35,AO35,AQ35,AS35)</f>
         <v>11</v>
       </c>
       <c r="AV35" s="34">
-        <f t="shared" si="167"/>
+        <f t="shared" si="165"/>
         <v>15</v>
       </c>
     </row>
@@ -5182,183 +5180,183 @@
         <v>8</v>
       </c>
       <c r="D36" s="24">
-        <f t="shared" ref="D36:P36" si="168">SUM(D34:D35)</f>
+        <f t="shared" ref="D36:P36" si="166">SUM(D34:D35)</f>
         <v>5</v>
       </c>
       <c r="E36" s="25">
+        <f t="shared" si="166"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="26">
+        <f t="shared" si="166"/>
+        <v>2</v>
+      </c>
+      <c r="G36" s="27">
+        <f t="shared" si="166"/>
+        <v>12</v>
+      </c>
+      <c r="H36" s="38">
+        <f t="shared" si="166"/>
+        <v>20</v>
+      </c>
+      <c r="I36" s="29">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="J36" s="29">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="K36" s="30">
+        <f t="shared" si="166"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="30">
+        <f t="shared" si="166"/>
+        <v>1</v>
+      </c>
+      <c r="M36" s="31">
+        <f t="shared" si="166"/>
+        <v>2</v>
+      </c>
+      <c r="N36" s="31">
+        <f t="shared" si="166"/>
+        <v>2</v>
+      </c>
+      <c r="O36" s="33">
+        <f t="shared" si="166"/>
+        <v>12</v>
+      </c>
+      <c r="P36" s="33">
+        <f t="shared" si="166"/>
+        <v>12</v>
+      </c>
+      <c r="Q36" s="34">
+        <f t="shared" ref="Q36:R36" si="167">SUM(I36,K36,M36,O36)</f>
+        <v>20</v>
+      </c>
+      <c r="R36" s="34">
+        <f t="shared" si="167"/>
+        <v>20</v>
+      </c>
+      <c r="S36" s="29">
+        <f t="shared" ref="S36:Z36" si="168">SUM(S34:S35)</f>
+        <v>5</v>
+      </c>
+      <c r="T36" s="29">
         <f t="shared" si="168"/>
-        <v>1</v>
-      </c>
-      <c r="F36" s="26">
+        <v>5</v>
+      </c>
+      <c r="U36" s="30">
         <f t="shared" si="168"/>
-        <v>2</v>
-      </c>
-      <c r="G36" s="27">
+        <v>3</v>
+      </c>
+      <c r="V36" s="30">
+        <f t="shared" si="168"/>
+        <v>3</v>
+      </c>
+      <c r="W36" s="31">
+        <f t="shared" si="168"/>
+        <v>4</v>
+      </c>
+      <c r="X36" s="31">
+        <f t="shared" si="168"/>
+        <v>4</v>
+      </c>
+      <c r="Y36" s="33">
+        <f t="shared" si="168"/>
+        <v>11</v>
+      </c>
+      <c r="Z36" s="33">
         <f t="shared" si="168"/>
         <v>12</v>
       </c>
-      <c r="H36" s="38">
-        <f t="shared" si="168"/>
-        <v>20</v>
-      </c>
-      <c r="I36" s="29">
-        <f t="shared" si="168"/>
-        <v>5</v>
-      </c>
-      <c r="J36" s="29">
-        <f t="shared" si="168"/>
-        <v>5</v>
-      </c>
-      <c r="K36" s="30">
-        <f t="shared" si="168"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="30">
-        <f t="shared" si="168"/>
-        <v>1</v>
-      </c>
-      <c r="M36" s="31">
-        <f t="shared" si="168"/>
-        <v>2</v>
-      </c>
-      <c r="N36" s="31">
-        <f t="shared" si="168"/>
-        <v>2</v>
-      </c>
-      <c r="O36" s="33">
-        <f t="shared" si="168"/>
-        <v>12</v>
-      </c>
-      <c r="P36" s="33">
-        <f t="shared" si="168"/>
-        <v>12</v>
-      </c>
-      <c r="Q36" s="34">
-        <f t="shared" ref="Q36:R36" si="169">SUM(I36,K36,M36,O36)</f>
-        <v>20</v>
-      </c>
-      <c r="R36" s="34">
+      <c r="AA36" s="34">
+        <f t="shared" ref="AA36:AB36" si="169">SUM(S36,U36,W36,Y36)</f>
+        <v>23</v>
+      </c>
+      <c r="AB36" s="34">
         <f t="shared" si="169"/>
-        <v>20</v>
-      </c>
-      <c r="S36" s="29">
-        <f t="shared" ref="S36:Z36" si="170">SUM(S34:S35)</f>
-        <v>5</v>
-      </c>
-      <c r="T36" s="29">
+        <v>24</v>
+      </c>
+      <c r="AC36" s="29">
+        <f t="shared" ref="AC36:AJ36" si="170">SUM(AC34:AC35)</f>
+        <v>5</v>
+      </c>
+      <c r="AD36" s="29">
         <f t="shared" si="170"/>
         <v>5</v>
       </c>
-      <c r="U36" s="30">
+      <c r="AE36" s="30">
         <f t="shared" si="170"/>
-        <v>3</v>
-      </c>
-      <c r="V36" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="30">
         <f t="shared" si="170"/>
-        <v>3</v>
-      </c>
-      <c r="W36" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="31">
         <f t="shared" si="170"/>
-        <v>4</v>
-      </c>
-      <c r="X36" s="31">
+        <v>2</v>
+      </c>
+      <c r="AH36" s="31">
         <f t="shared" si="170"/>
-        <v>4</v>
-      </c>
-      <c r="Y36" s="33">
-        <f t="shared" si="170"/>
-        <v>11</v>
-      </c>
-      <c r="Z36" s="33">
+        <v>2</v>
+      </c>
+      <c r="AI36" s="33">
         <f t="shared" si="170"/>
         <v>12</v>
       </c>
-      <c r="AA36" s="34">
-        <f t="shared" ref="AA36:AB36" si="171">SUM(S36,U36,W36,Y36)</f>
-        <v>23</v>
-      </c>
-      <c r="AB36" s="34">
+      <c r="AJ36" s="33">
+        <f t="shared" si="170"/>
+        <v>12</v>
+      </c>
+      <c r="AK36" s="34">
+        <f t="shared" ref="AK36:AL36" si="171">SUM(AC36,AE36,AG36,AI36)</f>
+        <v>20</v>
+      </c>
+      <c r="AL36" s="34">
         <f t="shared" si="171"/>
-        <v>24</v>
-      </c>
-      <c r="AC36" s="29">
-        <f t="shared" ref="AC36:AJ36" si="172">SUM(AC34:AC35)</f>
-        <v>5</v>
-      </c>
-      <c r="AD36" s="29">
+        <v>20</v>
+      </c>
+      <c r="AM36" s="29">
+        <f t="shared" ref="AM36:AT36" si="172">SUM(AM34:AM35)</f>
+        <v>5</v>
+      </c>
+      <c r="AN36" s="29">
         <f t="shared" si="172"/>
         <v>5</v>
       </c>
-      <c r="AE36" s="30">
+      <c r="AO36" s="30">
         <f t="shared" si="172"/>
-        <v>1</v>
-      </c>
-      <c r="AF36" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="30">
         <f t="shared" si="172"/>
-        <v>1</v>
-      </c>
-      <c r="AG36" s="31">
+        <v>3</v>
+      </c>
+      <c r="AQ36" s="31">
         <f t="shared" si="172"/>
         <v>2</v>
       </c>
-      <c r="AH36" s="31">
+      <c r="AR36" s="31">
         <f t="shared" si="172"/>
-        <v>2</v>
-      </c>
-      <c r="AI36" s="33">
+        <v>4</v>
+      </c>
+      <c r="AS36" s="33">
         <f t="shared" si="172"/>
         <v>12</v>
       </c>
-      <c r="AJ36" s="33">
+      <c r="AT36" s="33">
         <f t="shared" si="172"/>
         <v>12</v>
       </c>
-      <c r="AK36" s="34">
-        <f t="shared" ref="AK36:AL36" si="173">SUM(AC36,AE36,AG36,AI36)</f>
-        <v>20</v>
-      </c>
-      <c r="AL36" s="34">
+      <c r="AU36" s="34">
+        <f t="shared" ref="AU36:AV36" si="173">SUM(AM36,AO36,AQ36,AS36)</f>
+        <v>19</v>
+      </c>
+      <c r="AV36" s="34">
         <f t="shared" si="173"/>
-        <v>20</v>
-      </c>
-      <c r="AM36" s="29">
-        <f t="shared" ref="AM36:AT36" si="174">SUM(AM34:AM35)</f>
-        <v>5</v>
-      </c>
-      <c r="AN36" s="29">
-        <f t="shared" si="174"/>
-        <v>5</v>
-      </c>
-      <c r="AO36" s="30">
-        <f t="shared" si="174"/>
-        <v>0</v>
-      </c>
-      <c r="AP36" s="30">
-        <f t="shared" si="174"/>
-        <v>3</v>
-      </c>
-      <c r="AQ36" s="31">
-        <f t="shared" si="174"/>
-        <v>2</v>
-      </c>
-      <c r="AR36" s="31">
-        <f t="shared" si="174"/>
-        <v>4</v>
-      </c>
-      <c r="AS36" s="33">
-        <f t="shared" si="174"/>
-        <v>12</v>
-      </c>
-      <c r="AT36" s="33">
-        <f t="shared" si="174"/>
-        <v>12</v>
-      </c>
-      <c r="AU36" s="34">
-        <f t="shared" ref="AU36:AV36" si="175">SUM(AM36,AO36,AQ36,AS36)</f>
-        <v>19</v>
-      </c>
-      <c r="AV36" s="34">
-        <f t="shared" si="175"/>
         <v>24</v>
       </c>
     </row>
@@ -5519,117 +5517,117 @@
         <v>5.0</v>
       </c>
       <c r="H39" s="28">
-        <f t="shared" ref="H39:H40" si="180">SUM(D39:G39)</f>
+        <f t="shared" ref="H39:H40" si="178">SUM(D39:G39)</f>
         <v>8</v>
       </c>
       <c r="I39" s="36">
         <v>2.0</v>
       </c>
       <c r="J39" s="36">
-        <f t="shared" ref="J39:J40" si="181">D39</f>
+        <f t="shared" ref="J39:J40" si="179">D39</f>
         <v>2</v>
       </c>
       <c r="K39" s="35">
         <v>1.0</v>
       </c>
       <c r="L39" s="30">
-        <f t="shared" ref="L39:L40" si="182">E39</f>
+        <f t="shared" ref="L39:L40" si="180">E39</f>
         <v>1</v>
       </c>
       <c r="M39" s="51">
         <v>0.0</v>
       </c>
       <c r="N39" s="31">
-        <f t="shared" ref="N39:N40" si="183">F39</f>
+        <f t="shared" ref="N39:N40" si="181">F39</f>
         <v>0</v>
       </c>
       <c r="O39" s="33">
         <v>5.0</v>
       </c>
       <c r="P39" s="33">
-        <f t="shared" ref="P39:P40" si="184">G39</f>
+        <f t="shared" ref="P39:P40" si="182">G39</f>
         <v>5</v>
       </c>
       <c r="Q39" s="34">
-        <f t="shared" ref="Q39:R39" si="176">SUM(I39,K39,M39,O39)</f>
+        <f t="shared" ref="Q39:R39" si="174">SUM(I39,K39,M39,O39)</f>
         <v>8</v>
       </c>
       <c r="R39" s="34">
+        <f t="shared" si="174"/>
+        <v>8</v>
+      </c>
+      <c r="S39" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="T39" s="29">
+        <f>$D$59</f>
+        <v>2</v>
+      </c>
+      <c r="U39" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="V39" s="30">
+        <f>$E$59</f>
+        <v>1</v>
+      </c>
+      <c r="W39" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="X39" s="31">
+        <f>$F$59</f>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="Z39" s="33">
+        <f>$G$59</f>
+        <v>5</v>
+      </c>
+      <c r="AA39" s="34">
+        <f t="shared" ref="AA39:AB39" si="175">SUM(S39,U39,W39,Y39)</f>
+        <v>8</v>
+      </c>
+      <c r="AB39" s="34">
+        <f t="shared" si="175"/>
+        <v>9</v>
+      </c>
+      <c r="AC39" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="AD39" s="29">
+        <f t="shared" ref="AD39:AD40" si="185">D39</f>
+        <v>2</v>
+      </c>
+      <c r="AE39" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="AF39" s="30">
+        <f t="shared" ref="AF39:AF40" si="186">E39</f>
+        <v>1</v>
+      </c>
+      <c r="AG39" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="AH39" s="31">
+        <f t="shared" ref="AH39:AH40" si="187">F39</f>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="AJ39" s="33">
+        <f t="shared" ref="AJ39:AJ40" si="188">G39</f>
+        <v>5</v>
+      </c>
+      <c r="AK39" s="34">
+        <f t="shared" ref="AK39:AL39" si="176">SUM(AC39,AE39,AG39,AI39)</f>
+        <v>8</v>
+      </c>
+      <c r="AL39" s="34">
         <f t="shared" si="176"/>
         <v>8</v>
       </c>
-      <c r="S39" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="T39" s="29">
-        <f>$D$59</f>
-        <v>2</v>
-      </c>
-      <c r="U39" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="V39" s="30">
-        <f>$E$59</f>
-        <v>1</v>
-      </c>
-      <c r="W39" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="X39" s="31">
-        <f>$F$59</f>
-        <v>1</v>
-      </c>
-      <c r="Y39" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="Z39" s="33">
-        <f>$G$59</f>
-        <v>5</v>
-      </c>
-      <c r="AA39" s="34">
-        <f t="shared" ref="AA39:AB39" si="177">SUM(S39,U39,W39,Y39)</f>
-        <v>8</v>
-      </c>
-      <c r="AB39" s="34">
-        <f t="shared" si="177"/>
-        <v>9</v>
-      </c>
-      <c r="AC39" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="AD39" s="29">
-        <f t="shared" ref="AD39:AD40" si="187">D39</f>
-        <v>2</v>
-      </c>
-      <c r="AE39" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="AF39" s="30">
-        <f t="shared" ref="AF39:AF40" si="188">E39</f>
-        <v>1</v>
-      </c>
-      <c r="AG39" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="AH39" s="31">
-        <f t="shared" ref="AH39:AH40" si="189">F39</f>
-        <v>0</v>
-      </c>
-      <c r="AI39" s="33">
-        <v>5.0</v>
-      </c>
-      <c r="AJ39" s="33">
-        <f t="shared" ref="AJ39:AJ40" si="190">G39</f>
-        <v>5</v>
-      </c>
-      <c r="AK39" s="34">
-        <f t="shared" ref="AK39:AL39" si="178">SUM(AC39,AE39,AG39,AI39)</f>
-        <v>8</v>
-      </c>
-      <c r="AL39" s="34">
-        <f t="shared" si="178"/>
-        <v>8</v>
-      </c>
       <c r="AM39" s="36">
         <v>2.0</v>
       </c>
@@ -5659,11 +5657,11 @@
         <v>5</v>
       </c>
       <c r="AU39" s="34">
-        <f t="shared" ref="AU39:AV39" si="179">SUM(AM39,AO39,AQ39,AS39)</f>
+        <f t="shared" ref="AU39:AV39" si="177">SUM(AM39,AO39,AQ39,AS39)</f>
         <v>8</v>
       </c>
       <c r="AV39" s="34">
-        <f t="shared" si="179"/>
+        <f t="shared" si="177"/>
         <v>9</v>
       </c>
     </row>
@@ -5684,43 +5682,43 @@
         <v>7.0</v>
       </c>
       <c r="H40" s="28">
-        <f t="shared" si="180"/>
+        <f t="shared" si="178"/>
         <v>14</v>
       </c>
       <c r="I40" s="36">
         <v>3.0</v>
       </c>
       <c r="J40" s="36">
-        <f t="shared" si="181"/>
+        <f t="shared" si="179"/>
         <v>3</v>
       </c>
       <c r="K40" s="35">
         <v>2.0</v>
       </c>
       <c r="L40" s="35">
-        <f t="shared" si="182"/>
+        <f t="shared" si="180"/>
         <v>2</v>
       </c>
       <c r="M40" s="51">
         <v>2.0</v>
       </c>
       <c r="N40" s="31">
-        <f t="shared" si="183"/>
+        <f t="shared" si="181"/>
         <v>2</v>
       </c>
       <c r="O40" s="32">
         <v>7.0</v>
       </c>
       <c r="P40" s="32">
-        <f t="shared" si="184"/>
+        <f t="shared" si="182"/>
         <v>7</v>
       </c>
       <c r="Q40" s="34">
-        <f t="shared" ref="Q40:R40" si="185">SUM(I40,K40,M40,O40)</f>
+        <f t="shared" ref="Q40:R40" si="183">SUM(I40,K40,M40,O40)</f>
         <v>14</v>
       </c>
       <c r="R40" s="34">
-        <f t="shared" si="185"/>
+        <f t="shared" si="183"/>
         <v>14</v>
       </c>
       <c r="S40" s="36">
@@ -5752,47 +5750,47 @@
         <v>7</v>
       </c>
       <c r="AA40" s="34">
-        <f t="shared" ref="AA40:AB40" si="186">SUM(S40,U40,W40,Y40)</f>
+        <f t="shared" ref="AA40:AB40" si="184">SUM(S40,U40,W40,Y40)</f>
         <v>15</v>
       </c>
       <c r="AB40" s="34">
-        <f t="shared" si="186"/>
+        <f t="shared" si="184"/>
         <v>15</v>
       </c>
       <c r="AC40" s="36">
         <v>3.0</v>
       </c>
       <c r="AD40" s="29">
-        <f t="shared" si="187"/>
+        <f t="shared" si="185"/>
         <v>3</v>
       </c>
       <c r="AE40" s="35">
         <v>2.0</v>
       </c>
       <c r="AF40" s="35">
-        <f t="shared" si="188"/>
+        <f t="shared" si="186"/>
         <v>2</v>
       </c>
       <c r="AG40" s="51">
         <v>2.0</v>
       </c>
       <c r="AH40" s="31">
-        <f t="shared" si="189"/>
+        <f t="shared" si="187"/>
         <v>2</v>
       </c>
       <c r="AI40" s="32">
         <v>7.0</v>
       </c>
       <c r="AJ40" s="32">
-        <f t="shared" si="190"/>
+        <f t="shared" si="188"/>
         <v>7</v>
       </c>
       <c r="AK40" s="34">
-        <f t="shared" ref="AK40:AL40" si="191">SUM(AC40,AE40,AG40,AI40)</f>
+        <f t="shared" ref="AK40:AL40" si="189">SUM(AC40,AE40,AG40,AI40)</f>
         <v>14</v>
       </c>
       <c r="AL40" s="34">
-        <f t="shared" si="191"/>
+        <f t="shared" si="189"/>
         <v>14</v>
       </c>
       <c r="AM40" s="36">
@@ -5824,11 +5822,11 @@
         <v>7</v>
       </c>
       <c r="AU40" s="34">
-        <f t="shared" ref="AU40:AV40" si="192">SUM(AM40,AO40,AQ40,AS40)</f>
+        <f t="shared" ref="AU40:AV40" si="190">SUM(AM40,AO40,AQ40,AS40)</f>
         <v>14</v>
       </c>
       <c r="AV40" s="34">
-        <f t="shared" si="192"/>
+        <f t="shared" si="190"/>
         <v>15</v>
       </c>
     </row>
@@ -5837,183 +5835,183 @@
         <v>8</v>
       </c>
       <c r="D41" s="24">
-        <f t="shared" ref="D41:P41" si="193">SUM(D39:D40)</f>
+        <f t="shared" ref="D41:P41" si="191">SUM(D39:D40)</f>
         <v>5</v>
       </c>
       <c r="E41" s="25">
+        <f t="shared" si="191"/>
+        <v>3</v>
+      </c>
+      <c r="F41" s="26">
+        <f t="shared" si="191"/>
+        <v>2</v>
+      </c>
+      <c r="G41" s="27">
+        <f t="shared" si="191"/>
+        <v>12</v>
+      </c>
+      <c r="H41" s="38">
+        <f t="shared" si="191"/>
+        <v>22</v>
+      </c>
+      <c r="I41" s="29">
+        <f t="shared" si="191"/>
+        <v>5</v>
+      </c>
+      <c r="J41" s="29">
+        <f t="shared" si="191"/>
+        <v>5</v>
+      </c>
+      <c r="K41" s="30">
+        <f t="shared" si="191"/>
+        <v>3</v>
+      </c>
+      <c r="L41" s="30">
+        <f t="shared" si="191"/>
+        <v>3</v>
+      </c>
+      <c r="M41" s="31">
+        <f t="shared" si="191"/>
+        <v>2</v>
+      </c>
+      <c r="N41" s="31">
+        <f t="shared" si="191"/>
+        <v>2</v>
+      </c>
+      <c r="O41" s="33">
+        <f t="shared" si="191"/>
+        <v>12</v>
+      </c>
+      <c r="P41" s="33">
+        <f t="shared" si="191"/>
+        <v>12</v>
+      </c>
+      <c r="Q41" s="34">
+        <f t="shared" ref="Q41:R41" si="192">SUM(I41,K41,M41,O41)</f>
+        <v>22</v>
+      </c>
+      <c r="R41" s="34">
+        <f t="shared" si="192"/>
+        <v>22</v>
+      </c>
+      <c r="S41" s="29">
+        <f t="shared" ref="S41:Z41" si="193">SUM(S39:S40)</f>
+        <v>5</v>
+      </c>
+      <c r="T41" s="29">
         <f t="shared" si="193"/>
-        <v>3</v>
-      </c>
-      <c r="F41" s="26">
+        <v>5</v>
+      </c>
+      <c r="U41" s="30">
         <f t="shared" si="193"/>
-        <v>2</v>
-      </c>
-      <c r="G41" s="27">
+        <v>3</v>
+      </c>
+      <c r="V41" s="30">
+        <f t="shared" si="193"/>
+        <v>3</v>
+      </c>
+      <c r="W41" s="31">
+        <f t="shared" si="193"/>
+        <v>4</v>
+      </c>
+      <c r="X41" s="31">
+        <f t="shared" si="193"/>
+        <v>4</v>
+      </c>
+      <c r="Y41" s="33">
+        <f t="shared" si="193"/>
+        <v>11</v>
+      </c>
+      <c r="Z41" s="33">
         <f t="shared" si="193"/>
         <v>12</v>
       </c>
-      <c r="H41" s="38">
-        <f t="shared" si="193"/>
-        <v>22</v>
-      </c>
-      <c r="I41" s="29">
-        <f t="shared" si="193"/>
-        <v>5</v>
-      </c>
-      <c r="J41" s="29">
-        <f t="shared" si="193"/>
-        <v>5</v>
-      </c>
-      <c r="K41" s="30">
-        <f t="shared" si="193"/>
-        <v>3</v>
-      </c>
-      <c r="L41" s="30">
-        <f t="shared" si="193"/>
-        <v>3</v>
-      </c>
-      <c r="M41" s="31">
-        <f t="shared" si="193"/>
-        <v>2</v>
-      </c>
-      <c r="N41" s="31">
-        <f t="shared" si="193"/>
-        <v>2</v>
-      </c>
-      <c r="O41" s="33">
-        <f t="shared" si="193"/>
-        <v>12</v>
-      </c>
-      <c r="P41" s="33">
-        <f t="shared" si="193"/>
-        <v>12</v>
-      </c>
-      <c r="Q41" s="34">
-        <f t="shared" ref="Q41:R41" si="194">SUM(I41,K41,M41,O41)</f>
-        <v>22</v>
-      </c>
-      <c r="R41" s="34">
+      <c r="AA41" s="34">
+        <f t="shared" ref="AA41:AB41" si="194">SUM(S41,U41,W41,Y41)</f>
+        <v>23</v>
+      </c>
+      <c r="AB41" s="34">
         <f t="shared" si="194"/>
-        <v>22</v>
-      </c>
-      <c r="S41" s="29">
-        <f t="shared" ref="S41:Z41" si="195">SUM(S39:S40)</f>
-        <v>5</v>
-      </c>
-      <c r="T41" s="29">
+        <v>24</v>
+      </c>
+      <c r="AC41" s="29">
+        <f t="shared" ref="AC41:AJ41" si="195">SUM(AC39:AC40)</f>
+        <v>5</v>
+      </c>
+      <c r="AD41" s="29">
         <f t="shared" si="195"/>
         <v>5</v>
       </c>
-      <c r="U41" s="30">
+      <c r="AE41" s="30">
         <f t="shared" si="195"/>
         <v>3</v>
       </c>
-      <c r="V41" s="30">
+      <c r="AF41" s="30">
         <f t="shared" si="195"/>
         <v>3</v>
       </c>
-      <c r="W41" s="31">
+      <c r="AG41" s="31">
         <f t="shared" si="195"/>
-        <v>4</v>
-      </c>
-      <c r="X41" s="31">
+        <v>2</v>
+      </c>
+      <c r="AH41" s="31">
         <f t="shared" si="195"/>
-        <v>4</v>
-      </c>
-      <c r="Y41" s="33">
-        <f t="shared" si="195"/>
-        <v>11</v>
-      </c>
-      <c r="Z41" s="33">
+        <v>2</v>
+      </c>
+      <c r="AI41" s="33">
         <f t="shared" si="195"/>
         <v>12</v>
       </c>
-      <c r="AA41" s="34">
-        <f t="shared" ref="AA41:AB41" si="196">SUM(S41,U41,W41,Y41)</f>
-        <v>23</v>
-      </c>
-      <c r="AB41" s="34">
+      <c r="AJ41" s="33">
+        <f t="shared" si="195"/>
+        <v>12</v>
+      </c>
+      <c r="AK41" s="34">
+        <f t="shared" ref="AK41:AL41" si="196">SUM(AC41,AE41,AG41,AI41)</f>
+        <v>22</v>
+      </c>
+      <c r="AL41" s="34">
         <f t="shared" si="196"/>
-        <v>24</v>
-      </c>
-      <c r="AC41" s="29">
-        <f t="shared" ref="AC41:AJ41" si="197">SUM(AC39:AC40)</f>
-        <v>5</v>
-      </c>
-      <c r="AD41" s="29">
+        <v>22</v>
+      </c>
+      <c r="AM41" s="29">
+        <f t="shared" ref="AM41:AT41" si="197">SUM(AM39:AM40)</f>
+        <v>5</v>
+      </c>
+      <c r="AN41" s="29">
         <f t="shared" si="197"/>
         <v>5</v>
       </c>
-      <c r="AE41" s="30">
+      <c r="AO41" s="30">
         <f t="shared" si="197"/>
         <v>3</v>
       </c>
-      <c r="AF41" s="30">
+      <c r="AP41" s="30">
         <f t="shared" si="197"/>
         <v>3</v>
       </c>
-      <c r="AG41" s="31">
+      <c r="AQ41" s="31">
         <f t="shared" si="197"/>
         <v>2</v>
       </c>
-      <c r="AH41" s="31">
+      <c r="AR41" s="31">
         <f t="shared" si="197"/>
-        <v>2</v>
-      </c>
-      <c r="AI41" s="33">
+        <v>4</v>
+      </c>
+      <c r="AS41" s="33">
         <f t="shared" si="197"/>
         <v>12</v>
       </c>
-      <c r="AJ41" s="33">
+      <c r="AT41" s="33">
         <f t="shared" si="197"/>
         <v>12</v>
       </c>
-      <c r="AK41" s="34">
-        <f t="shared" ref="AK41:AL41" si="198">SUM(AC41,AE41,AG41,AI41)</f>
+      <c r="AU41" s="34">
+        <f t="shared" ref="AU41:AV41" si="198">SUM(AM41,AO41,AQ41,AS41)</f>
         <v>22</v>
       </c>
-      <c r="AL41" s="34">
+      <c r="AV41" s="34">
         <f t="shared" si="198"/>
-        <v>22</v>
-      </c>
-      <c r="AM41" s="29">
-        <f t="shared" ref="AM41:AT41" si="199">SUM(AM39:AM40)</f>
-        <v>5</v>
-      </c>
-      <c r="AN41" s="29">
-        <f t="shared" si="199"/>
-        <v>5</v>
-      </c>
-      <c r="AO41" s="30">
-        <f t="shared" si="199"/>
-        <v>3</v>
-      </c>
-      <c r="AP41" s="30">
-        <f t="shared" si="199"/>
-        <v>3</v>
-      </c>
-      <c r="AQ41" s="31">
-        <f t="shared" si="199"/>
-        <v>2</v>
-      </c>
-      <c r="AR41" s="31">
-        <f t="shared" si="199"/>
-        <v>4</v>
-      </c>
-      <c r="AS41" s="33">
-        <f t="shared" si="199"/>
-        <v>12</v>
-      </c>
-      <c r="AT41" s="33">
-        <f t="shared" si="199"/>
-        <v>12</v>
-      </c>
-      <c r="AU41" s="34">
-        <f t="shared" ref="AU41:AV41" si="200">SUM(AM41,AO41,AQ41,AS41)</f>
-        <v>22</v>
-      </c>
-      <c r="AV41" s="34">
-        <f t="shared" si="200"/>
         <v>24</v>
       </c>
     </row>
@@ -6174,117 +6172,117 @@
         <v>5.0</v>
       </c>
       <c r="H44" s="28">
-        <f t="shared" ref="H44:H45" si="205">SUM(D44:G44)</f>
+        <f t="shared" ref="H44:H45" si="203">SUM(D44:G44)</f>
         <v>7</v>
       </c>
       <c r="I44" s="36">
         <v>2.0</v>
       </c>
       <c r="J44" s="36">
-        <f t="shared" ref="J44:J45" si="206">D44</f>
+        <f t="shared" ref="J44:J45" si="204">D44</f>
         <v>2</v>
       </c>
       <c r="K44" s="35">
         <v>0.0</v>
       </c>
       <c r="L44" s="30">
-        <f t="shared" ref="L44:L45" si="207">E44</f>
+        <f t="shared" ref="L44:L45" si="205">E44</f>
         <v>0</v>
       </c>
       <c r="M44" s="51">
         <v>0.0</v>
       </c>
       <c r="N44" s="31">
-        <f t="shared" ref="N44:N45" si="208">F44</f>
+        <f t="shared" ref="N44:N45" si="206">F44</f>
         <v>0</v>
       </c>
       <c r="O44" s="33">
         <v>5.0</v>
       </c>
       <c r="P44" s="33">
-        <f t="shared" ref="P44:P45" si="209">G44</f>
+        <f t="shared" ref="P44:P45" si="207">G44</f>
         <v>5</v>
       </c>
       <c r="Q44" s="34">
-        <f t="shared" ref="Q44:R44" si="201">SUM(I44,K44,M44,O44)</f>
+        <f t="shared" ref="Q44:R44" si="199">SUM(I44,K44,M44,O44)</f>
         <v>7</v>
       </c>
       <c r="R44" s="34">
+        <f t="shared" si="199"/>
+        <v>7</v>
+      </c>
+      <c r="S44" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="T44" s="29">
+        <f>$D$59</f>
+        <v>2</v>
+      </c>
+      <c r="U44" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="V44" s="30">
+        <f>$E$59</f>
+        <v>1</v>
+      </c>
+      <c r="W44" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="X44" s="31">
+        <f>$F$59</f>
+        <v>1</v>
+      </c>
+      <c r="Y44" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="Z44" s="33">
+        <f>$G$59</f>
+        <v>5</v>
+      </c>
+      <c r="AA44" s="34">
+        <f t="shared" ref="AA44:AB44" si="200">SUM(S44,U44,W44,Y44)</f>
+        <v>8</v>
+      </c>
+      <c r="AB44" s="34">
+        <f t="shared" si="200"/>
+        <v>9</v>
+      </c>
+      <c r="AC44" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="AD44" s="29">
+        <f t="shared" ref="AD44:AD45" si="210">D44</f>
+        <v>2</v>
+      </c>
+      <c r="AE44" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="AF44" s="30">
+        <f t="shared" ref="AF44:AF45" si="211">E44</f>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="AH44" s="31">
+        <f t="shared" ref="AH44:AH45" si="212">F44</f>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="AJ44" s="33">
+        <f t="shared" ref="AJ44:AJ45" si="213">G44</f>
+        <v>5</v>
+      </c>
+      <c r="AK44" s="34">
+        <f t="shared" ref="AK44:AL44" si="201">SUM(AC44,AE44,AG44,AI44)</f>
+        <v>7</v>
+      </c>
+      <c r="AL44" s="34">
         <f t="shared" si="201"/>
         <v>7</v>
       </c>
-      <c r="S44" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="T44" s="29">
-        <f>$D$59</f>
-        <v>2</v>
-      </c>
-      <c r="U44" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="V44" s="30">
-        <f>$E$59</f>
-        <v>1</v>
-      </c>
-      <c r="W44" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="X44" s="31">
-        <f>$F$59</f>
-        <v>1</v>
-      </c>
-      <c r="Y44" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="Z44" s="33">
-        <f>$G$59</f>
-        <v>5</v>
-      </c>
-      <c r="AA44" s="34">
-        <f t="shared" ref="AA44:AB44" si="202">SUM(S44,U44,W44,Y44)</f>
-        <v>8</v>
-      </c>
-      <c r="AB44" s="34">
-        <f t="shared" si="202"/>
-        <v>9</v>
-      </c>
-      <c r="AC44" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="AD44" s="29">
-        <f t="shared" ref="AD44:AD45" si="212">D44</f>
-        <v>2</v>
-      </c>
-      <c r="AE44" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="AF44" s="30">
-        <f t="shared" ref="AF44:AF45" si="213">E44</f>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="AH44" s="31">
-        <f t="shared" ref="AH44:AH45" si="214">F44</f>
-        <v>0</v>
-      </c>
-      <c r="AI44" s="33">
-        <v>5.0</v>
-      </c>
-      <c r="AJ44" s="33">
-        <f t="shared" ref="AJ44:AJ45" si="215">G44</f>
-        <v>5</v>
-      </c>
-      <c r="AK44" s="34">
-        <f t="shared" ref="AK44:AL44" si="203">SUM(AC44,AE44,AG44,AI44)</f>
-        <v>7</v>
-      </c>
-      <c r="AL44" s="34">
-        <f t="shared" si="203"/>
-        <v>7</v>
-      </c>
       <c r="AM44" s="36">
         <v>2.0</v>
       </c>
@@ -6314,11 +6312,11 @@
         <v>5</v>
       </c>
       <c r="AU44" s="34">
-        <f t="shared" ref="AU44:AV44" si="204">SUM(AM44,AO44,AQ44,AS44)</f>
+        <f t="shared" ref="AU44:AV44" si="202">SUM(AM44,AO44,AQ44,AS44)</f>
         <v>7</v>
       </c>
       <c r="AV44" s="34">
-        <f t="shared" si="204"/>
+        <f t="shared" si="202"/>
         <v>9</v>
       </c>
     </row>
@@ -6339,43 +6337,43 @@
         <v>6.0</v>
       </c>
       <c r="H45" s="28">
-        <f t="shared" si="205"/>
+        <f t="shared" si="203"/>
         <v>9</v>
       </c>
       <c r="I45" s="36">
         <v>3.0</v>
       </c>
       <c r="J45" s="36">
+        <f t="shared" si="204"/>
+        <v>3</v>
+      </c>
+      <c r="K45" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="L45" s="35">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="N45" s="31">
         <f t="shared" si="206"/>
-        <v>3</v>
-      </c>
-      <c r="K45" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="L45" s="35">
-        <f t="shared" si="207"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="N45" s="31">
-        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="O45" s="32">
         <v>6.0</v>
       </c>
       <c r="P45" s="32">
-        <f t="shared" si="209"/>
+        <f t="shared" si="207"/>
         <v>6</v>
       </c>
       <c r="Q45" s="34">
-        <f t="shared" ref="Q45:R45" si="210">SUM(I45,K45,M45,O45)</f>
+        <f t="shared" ref="Q45:R45" si="208">SUM(I45,K45,M45,O45)</f>
         <v>9</v>
       </c>
       <c r="R45" s="34">
-        <f t="shared" si="210"/>
+        <f t="shared" si="208"/>
         <v>9</v>
       </c>
       <c r="S45" s="36">
@@ -6407,47 +6405,47 @@
         <v>7</v>
       </c>
       <c r="AA45" s="34">
-        <f t="shared" ref="AA45:AB45" si="211">SUM(S45,U45,W45,Y45)</f>
+        <f t="shared" ref="AA45:AB45" si="209">SUM(S45,U45,W45,Y45)</f>
         <v>15</v>
       </c>
       <c r="AB45" s="34">
-        <f t="shared" si="211"/>
+        <f t="shared" si="209"/>
         <v>15</v>
       </c>
       <c r="AC45" s="36">
         <v>3.0</v>
       </c>
       <c r="AD45" s="29">
+        <f t="shared" si="210"/>
+        <v>3</v>
+      </c>
+      <c r="AE45" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="AF45" s="35">
+        <f t="shared" si="211"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="AH45" s="31">
         <f t="shared" si="212"/>
-        <v>3</v>
-      </c>
-      <c r="AE45" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="AF45" s="35">
-        <f t="shared" si="213"/>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="AH45" s="31">
-        <f t="shared" si="214"/>
         <v>0</v>
       </c>
       <c r="AI45" s="32">
         <v>6.0</v>
       </c>
       <c r="AJ45" s="32">
-        <f t="shared" si="215"/>
+        <f t="shared" si="213"/>
         <v>6</v>
       </c>
       <c r="AK45" s="34">
-        <f t="shared" ref="AK45:AL45" si="216">SUM(AC45,AE45,AG45,AI45)</f>
+        <f t="shared" ref="AK45:AL45" si="214">SUM(AC45,AE45,AG45,AI45)</f>
         <v>9</v>
       </c>
       <c r="AL45" s="34">
-        <f t="shared" si="216"/>
+        <f t="shared" si="214"/>
         <v>9</v>
       </c>
       <c r="AM45" s="36">
@@ -6479,11 +6477,11 @@
         <v>7</v>
       </c>
       <c r="AU45" s="34">
-        <f t="shared" ref="AU45:AV45" si="217">SUM(AM45,AO45,AQ45,AS45)</f>
+        <f t="shared" ref="AU45:AV45" si="215">SUM(AM45,AO45,AQ45,AS45)</f>
         <v>10</v>
       </c>
       <c r="AV45" s="34">
-        <f t="shared" si="217"/>
+        <f t="shared" si="215"/>
         <v>15</v>
       </c>
     </row>
@@ -6492,183 +6490,183 @@
         <v>8</v>
       </c>
       <c r="D46" s="24">
-        <f t="shared" ref="D46:P46" si="218">SUM(D44:D45)</f>
+        <f t="shared" ref="D46:P46" si="216">SUM(D44:D45)</f>
         <v>5</v>
       </c>
       <c r="E46" s="25">
+        <f t="shared" si="216"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="26">
+        <f t="shared" si="216"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="27">
+        <f t="shared" si="216"/>
+        <v>11</v>
+      </c>
+      <c r="H46" s="38">
+        <f t="shared" si="216"/>
+        <v>16</v>
+      </c>
+      <c r="I46" s="29">
+        <f t="shared" si="216"/>
+        <v>5</v>
+      </c>
+      <c r="J46" s="29">
+        <f t="shared" si="216"/>
+        <v>5</v>
+      </c>
+      <c r="K46" s="30">
+        <f t="shared" si="216"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="30">
+        <f t="shared" si="216"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="31">
+        <f t="shared" si="216"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="31">
+        <f t="shared" si="216"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="33">
+        <f t="shared" si="216"/>
+        <v>11</v>
+      </c>
+      <c r="P46" s="33">
+        <f t="shared" si="216"/>
+        <v>11</v>
+      </c>
+      <c r="Q46" s="34">
+        <f t="shared" ref="Q46:R46" si="217">SUM(I46,K46,M46,O46)</f>
+        <v>16</v>
+      </c>
+      <c r="R46" s="34">
+        <f t="shared" si="217"/>
+        <v>16</v>
+      </c>
+      <c r="S46" s="29">
+        <f t="shared" ref="S46:Z46" si="218">SUM(S44:S45)</f>
+        <v>5</v>
+      </c>
+      <c r="T46" s="29">
         <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="26">
+        <v>5</v>
+      </c>
+      <c r="U46" s="30">
         <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="27">
+        <v>3</v>
+      </c>
+      <c r="V46" s="30">
+        <f t="shared" si="218"/>
+        <v>3</v>
+      </c>
+      <c r="W46" s="31">
+        <f t="shared" si="218"/>
+        <v>4</v>
+      </c>
+      <c r="X46" s="31">
+        <f t="shared" si="218"/>
+        <v>4</v>
+      </c>
+      <c r="Y46" s="33">
         <f t="shared" si="218"/>
         <v>11</v>
       </c>
-      <c r="H46" s="38">
+      <c r="Z46" s="33">
         <f t="shared" si="218"/>
-        <v>16</v>
-      </c>
-      <c r="I46" s="29">
-        <f t="shared" si="218"/>
-        <v>5</v>
-      </c>
-      <c r="J46" s="29">
-        <f t="shared" si="218"/>
-        <v>5</v>
-      </c>
-      <c r="K46" s="30">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="30">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="31">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="31">
-        <f t="shared" si="218"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="33">
-        <f t="shared" si="218"/>
-        <v>11</v>
-      </c>
-      <c r="P46" s="33">
-        <f t="shared" si="218"/>
-        <v>11</v>
-      </c>
-      <c r="Q46" s="34">
-        <f t="shared" ref="Q46:R46" si="219">SUM(I46,K46,M46,O46)</f>
-        <v>16</v>
-      </c>
-      <c r="R46" s="34">
+        <v>12</v>
+      </c>
+      <c r="AA46" s="34">
+        <f t="shared" ref="AA46:AB46" si="219">SUM(S46,U46,W46,Y46)</f>
+        <v>23</v>
+      </c>
+      <c r="AB46" s="34">
         <f t="shared" si="219"/>
-        <v>16</v>
-      </c>
-      <c r="S46" s="29">
-        <f t="shared" ref="S46:Z46" si="220">SUM(S44:S45)</f>
-        <v>5</v>
-      </c>
-      <c r="T46" s="29">
+        <v>24</v>
+      </c>
+      <c r="AC46" s="29">
+        <f t="shared" ref="AC46:AJ46" si="220">SUM(AC44:AC45)</f>
+        <v>5</v>
+      </c>
+      <c r="AD46" s="29">
         <f t="shared" si="220"/>
         <v>5</v>
       </c>
-      <c r="U46" s="30">
+      <c r="AE46" s="30">
         <f t="shared" si="220"/>
-        <v>3</v>
-      </c>
-      <c r="V46" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="30">
         <f t="shared" si="220"/>
-        <v>3</v>
-      </c>
-      <c r="W46" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="31">
         <f t="shared" si="220"/>
-        <v>4</v>
-      </c>
-      <c r="X46" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="31">
         <f t="shared" si="220"/>
-        <v>4</v>
-      </c>
-      <c r="Y46" s="33">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="33">
         <f t="shared" si="220"/>
         <v>11</v>
       </c>
-      <c r="Z46" s="33">
+      <c r="AJ46" s="33">
         <f t="shared" si="220"/>
+        <v>11</v>
+      </c>
+      <c r="AK46" s="34">
+        <f t="shared" ref="AK46:AL46" si="221">SUM(AC46,AE46,AG46,AI46)</f>
+        <v>16</v>
+      </c>
+      <c r="AL46" s="34">
+        <f t="shared" si="221"/>
+        <v>16</v>
+      </c>
+      <c r="AM46" s="29">
+        <f t="shared" ref="AM46:AT46" si="222">SUM(AM44:AM45)</f>
+        <v>5</v>
+      </c>
+      <c r="AN46" s="29">
+        <f t="shared" si="222"/>
+        <v>5</v>
+      </c>
+      <c r="AO46" s="30">
+        <f t="shared" si="222"/>
+        <v>0</v>
+      </c>
+      <c r="AP46" s="30">
+        <f t="shared" si="222"/>
+        <v>3</v>
+      </c>
+      <c r="AQ46" s="31">
+        <f t="shared" si="222"/>
+        <v>0</v>
+      </c>
+      <c r="AR46" s="31">
+        <f t="shared" si="222"/>
+        <v>4</v>
+      </c>
+      <c r="AS46" s="33">
+        <f t="shared" si="222"/>
         <v>12</v>
       </c>
-      <c r="AA46" s="34">
-        <f t="shared" ref="AA46:AB46" si="221">SUM(S46,U46,W46,Y46)</f>
-        <v>23</v>
-      </c>
-      <c r="AB46" s="34">
-        <f t="shared" si="221"/>
-        <v>24</v>
-      </c>
-      <c r="AC46" s="29">
-        <f t="shared" ref="AC46:AJ46" si="222">SUM(AC44:AC45)</f>
-        <v>5</v>
-      </c>
-      <c r="AD46" s="29">
+      <c r="AT46" s="33">
         <f t="shared" si="222"/>
-        <v>5</v>
-      </c>
-      <c r="AE46" s="30">
-        <f t="shared" si="222"/>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="30">
-        <f t="shared" si="222"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="31">
-        <f t="shared" si="222"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="31">
-        <f t="shared" si="222"/>
-        <v>0</v>
-      </c>
-      <c r="AI46" s="33">
-        <f t="shared" si="222"/>
-        <v>11</v>
-      </c>
-      <c r="AJ46" s="33">
-        <f t="shared" si="222"/>
-        <v>11</v>
-      </c>
-      <c r="AK46" s="34">
-        <f t="shared" ref="AK46:AL46" si="223">SUM(AC46,AE46,AG46,AI46)</f>
-        <v>16</v>
-      </c>
-      <c r="AL46" s="34">
+        <v>12</v>
+      </c>
+      <c r="AU46" s="34">
+        <f t="shared" ref="AU46:AV46" si="223">SUM(AM46,AO46,AQ46,AS46)</f>
+        <v>17</v>
+      </c>
+      <c r="AV46" s="34">
         <f t="shared" si="223"/>
-        <v>16</v>
-      </c>
-      <c r="AM46" s="29">
-        <f t="shared" ref="AM46:AT46" si="224">SUM(AM44:AM45)</f>
-        <v>5</v>
-      </c>
-      <c r="AN46" s="29">
-        <f t="shared" si="224"/>
-        <v>5</v>
-      </c>
-      <c r="AO46" s="30">
-        <f t="shared" si="224"/>
-        <v>0</v>
-      </c>
-      <c r="AP46" s="30">
-        <f t="shared" si="224"/>
-        <v>3</v>
-      </c>
-      <c r="AQ46" s="31">
-        <f t="shared" si="224"/>
-        <v>0</v>
-      </c>
-      <c r="AR46" s="31">
-        <f t="shared" si="224"/>
-        <v>4</v>
-      </c>
-      <c r="AS46" s="33">
-        <f t="shared" si="224"/>
-        <v>12</v>
-      </c>
-      <c r="AT46" s="33">
-        <f t="shared" si="224"/>
-        <v>12</v>
-      </c>
-      <c r="AU46" s="34">
-        <f t="shared" ref="AU46:AV46" si="225">SUM(AM46,AO46,AQ46,AS46)</f>
-        <v>17</v>
-      </c>
-      <c r="AV46" s="34">
-        <f t="shared" si="225"/>
         <v>24</v>
       </c>
     </row>
@@ -6830,117 +6828,117 @@
         <v>5.0</v>
       </c>
       <c r="H49" s="28">
-        <f t="shared" ref="H49:H50" si="230">SUM(D49:G49)</f>
+        <f t="shared" ref="H49:H50" si="228">SUM(D49:G49)</f>
         <v>8</v>
       </c>
       <c r="I49" s="36">
         <v>2.0</v>
       </c>
       <c r="J49" s="36">
-        <f t="shared" ref="J49:J50" si="231">D49</f>
+        <f t="shared" ref="J49:J50" si="229">D49</f>
         <v>2</v>
       </c>
       <c r="K49" s="35">
         <v>0.0</v>
       </c>
       <c r="L49" s="30">
-        <f t="shared" ref="L49:L50" si="232">E49</f>
+        <f t="shared" ref="L49:L50" si="230">E49</f>
         <v>0</v>
       </c>
       <c r="M49" s="51">
         <v>1.0</v>
       </c>
       <c r="N49" s="31">
-        <f t="shared" ref="N49:N50" si="233">F49</f>
+        <f t="shared" ref="N49:N50" si="231">F49</f>
         <v>1</v>
       </c>
       <c r="O49" s="33">
         <v>5.0</v>
       </c>
       <c r="P49" s="33">
-        <f t="shared" ref="P49:P50" si="234">G49</f>
+        <f t="shared" ref="P49:P50" si="232">G49</f>
         <v>5</v>
       </c>
       <c r="Q49" s="34">
-        <f t="shared" ref="Q49:R49" si="226">SUM(I49,K49,M49,O49)</f>
+        <f t="shared" ref="Q49:R49" si="224">SUM(I49,K49,M49,O49)</f>
         <v>8</v>
       </c>
       <c r="R49" s="34">
+        <f t="shared" si="224"/>
+        <v>8</v>
+      </c>
+      <c r="S49" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="T49" s="29">
+        <f>$D$59</f>
+        <v>2</v>
+      </c>
+      <c r="U49" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="V49" s="30">
+        <f>$E$59</f>
+        <v>1</v>
+      </c>
+      <c r="W49" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="X49" s="31">
+        <f>$F$59</f>
+        <v>1</v>
+      </c>
+      <c r="Y49" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="Z49" s="33">
+        <f>$G$59</f>
+        <v>5</v>
+      </c>
+      <c r="AA49" s="34">
+        <f t="shared" ref="AA49:AB49" si="225">SUM(S49,U49,W49,Y49)</f>
+        <v>8</v>
+      </c>
+      <c r="AB49" s="34">
+        <f t="shared" si="225"/>
+        <v>9</v>
+      </c>
+      <c r="AC49" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="AD49" s="29">
+        <f t="shared" ref="AD49:AD50" si="235">D49</f>
+        <v>2</v>
+      </c>
+      <c r="AE49" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="AF49" s="30">
+        <f t="shared" ref="AF49:AF50" si="236">E49</f>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="AH49" s="31">
+        <f t="shared" ref="AH49:AH50" si="237">F49</f>
+        <v>1</v>
+      </c>
+      <c r="AI49" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="AJ49" s="33">
+        <f t="shared" ref="AJ49:AJ50" si="238">G49</f>
+        <v>5</v>
+      </c>
+      <c r="AK49" s="34">
+        <f t="shared" ref="AK49:AL49" si="226">SUM(AC49,AE49,AG49,AI49)</f>
+        <v>8</v>
+      </c>
+      <c r="AL49" s="34">
         <f t="shared" si="226"/>
         <v>8</v>
       </c>
-      <c r="S49" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="T49" s="29">
-        <f>$D$59</f>
-        <v>2</v>
-      </c>
-      <c r="U49" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="V49" s="30">
-        <f>$E$59</f>
-        <v>1</v>
-      </c>
-      <c r="W49" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="X49" s="31">
-        <f>$F$59</f>
-        <v>1</v>
-      </c>
-      <c r="Y49" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="Z49" s="33">
-        <f>$G$59</f>
-        <v>5</v>
-      </c>
-      <c r="AA49" s="34">
-        <f t="shared" ref="AA49:AB49" si="227">SUM(S49,U49,W49,Y49)</f>
-        <v>8</v>
-      </c>
-      <c r="AB49" s="34">
-        <f t="shared" si="227"/>
-        <v>9</v>
-      </c>
-      <c r="AC49" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="AD49" s="29">
-        <f t="shared" ref="AD49:AD50" si="237">D49</f>
-        <v>2</v>
-      </c>
-      <c r="AE49" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="AF49" s="30">
-        <f t="shared" ref="AF49:AF50" si="238">E49</f>
-        <v>0</v>
-      </c>
-      <c r="AG49" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="AH49" s="31">
-        <f t="shared" ref="AH49:AH50" si="239">F49</f>
-        <v>1</v>
-      </c>
-      <c r="AI49" s="33">
-        <v>5.0</v>
-      </c>
-      <c r="AJ49" s="33">
-        <f t="shared" ref="AJ49:AJ50" si="240">G49</f>
-        <v>5</v>
-      </c>
-      <c r="AK49" s="34">
-        <f t="shared" ref="AK49:AL49" si="228">SUM(AC49,AE49,AG49,AI49)</f>
-        <v>8</v>
-      </c>
-      <c r="AL49" s="34">
-        <f t="shared" si="228"/>
-        <v>8</v>
-      </c>
       <c r="AM49" s="36">
         <v>2.0</v>
       </c>
@@ -6970,11 +6968,11 @@
         <v>5</v>
       </c>
       <c r="AU49" s="34">
-        <f t="shared" ref="AU49:AV49" si="229">SUM(AM49,AO49,AQ49,AS49)</f>
+        <f t="shared" ref="AU49:AV49" si="227">SUM(AM49,AO49,AQ49,AS49)</f>
         <v>8</v>
       </c>
       <c r="AV49" s="34">
-        <f t="shared" si="229"/>
+        <f t="shared" si="227"/>
         <v>9</v>
       </c>
     </row>
@@ -6995,43 +6993,43 @@
         <v>6.0</v>
       </c>
       <c r="H50" s="28">
-        <f t="shared" si="230"/>
+        <f t="shared" si="228"/>
         <v>11</v>
       </c>
       <c r="I50" s="36">
         <v>3.0</v>
       </c>
       <c r="J50" s="36">
-        <f t="shared" si="231"/>
+        <f t="shared" si="229"/>
         <v>3</v>
       </c>
       <c r="K50" s="35">
         <v>1.0</v>
       </c>
       <c r="L50" s="35">
-        <f t="shared" si="232"/>
+        <f t="shared" si="230"/>
         <v>1</v>
       </c>
       <c r="M50" s="51">
         <v>1.0</v>
       </c>
       <c r="N50" s="31">
-        <f t="shared" si="233"/>
+        <f t="shared" si="231"/>
         <v>1</v>
       </c>
       <c r="O50" s="32">
         <v>6.0</v>
       </c>
       <c r="P50" s="32">
-        <f t="shared" si="234"/>
+        <f t="shared" si="232"/>
         <v>6</v>
       </c>
       <c r="Q50" s="34">
-        <f t="shared" ref="Q50:R50" si="235">SUM(I50,K50,M50,O50)</f>
+        <f t="shared" ref="Q50:R50" si="233">SUM(I50,K50,M50,O50)</f>
         <v>11</v>
       </c>
       <c r="R50" s="34">
-        <f t="shared" si="235"/>
+        <f t="shared" si="233"/>
         <v>11</v>
       </c>
       <c r="S50" s="36">
@@ -7063,47 +7061,47 @@
         <v>7</v>
       </c>
       <c r="AA50" s="34">
-        <f t="shared" ref="AA50:AB50" si="236">SUM(S50,U50,W50,Y50)</f>
+        <f t="shared" ref="AA50:AB50" si="234">SUM(S50,U50,W50,Y50)</f>
         <v>15</v>
       </c>
       <c r="AB50" s="34">
-        <f t="shared" si="236"/>
+        <f t="shared" si="234"/>
         <v>15</v>
       </c>
       <c r="AC50" s="36">
         <v>3.0</v>
       </c>
       <c r="AD50" s="29">
-        <f t="shared" si="237"/>
+        <f t="shared" si="235"/>
         <v>3</v>
       </c>
       <c r="AE50" s="35">
         <v>1.0</v>
       </c>
       <c r="AF50" s="35">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>1</v>
       </c>
       <c r="AG50" s="51">
         <v>1.0</v>
       </c>
       <c r="AH50" s="31">
-        <f t="shared" si="239"/>
+        <f t="shared" si="237"/>
         <v>1</v>
       </c>
       <c r="AI50" s="32">
         <v>6.0</v>
       </c>
       <c r="AJ50" s="32">
-        <f t="shared" si="240"/>
+        <f t="shared" si="238"/>
         <v>6</v>
       </c>
       <c r="AK50" s="34">
-        <f t="shared" ref="AK50:AL50" si="241">SUM(AC50,AE50,AG50,AI50)</f>
+        <f t="shared" ref="AK50:AL50" si="239">SUM(AC50,AE50,AG50,AI50)</f>
         <v>11</v>
       </c>
       <c r="AL50" s="34">
-        <f t="shared" si="241"/>
+        <f t="shared" si="239"/>
         <v>11</v>
       </c>
       <c r="AM50" s="36">
@@ -7135,11 +7133,11 @@
         <v>7</v>
       </c>
       <c r="AU50" s="34">
-        <f t="shared" ref="AU50:AV50" si="242">SUM(AM50,AO50,AQ50,AS50)</f>
+        <f t="shared" ref="AU50:AV50" si="240">SUM(AM50,AO50,AQ50,AS50)</f>
         <v>11</v>
       </c>
       <c r="AV50" s="34">
-        <f t="shared" si="242"/>
+        <f t="shared" si="240"/>
         <v>15</v>
       </c>
     </row>
@@ -7148,183 +7146,183 @@
         <v>8</v>
       </c>
       <c r="D51" s="24">
-        <f t="shared" ref="D51:P51" si="243">SUM(D49:D50)</f>
+        <f t="shared" ref="D51:P51" si="241">SUM(D49:D50)</f>
         <v>5</v>
       </c>
       <c r="E51" s="25">
+        <f t="shared" si="241"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="26">
+        <f t="shared" si="241"/>
+        <v>2</v>
+      </c>
+      <c r="G51" s="27">
+        <f t="shared" si="241"/>
+        <v>11</v>
+      </c>
+      <c r="H51" s="38">
+        <f t="shared" si="241"/>
+        <v>19</v>
+      </c>
+      <c r="I51" s="29">
+        <f t="shared" si="241"/>
+        <v>5</v>
+      </c>
+      <c r="J51" s="29">
+        <f t="shared" si="241"/>
+        <v>5</v>
+      </c>
+      <c r="K51" s="30">
+        <f t="shared" si="241"/>
+        <v>1</v>
+      </c>
+      <c r="L51" s="30">
+        <f t="shared" si="241"/>
+        <v>1</v>
+      </c>
+      <c r="M51" s="31">
+        <f t="shared" si="241"/>
+        <v>2</v>
+      </c>
+      <c r="N51" s="31">
+        <f t="shared" si="241"/>
+        <v>2</v>
+      </c>
+      <c r="O51" s="33">
+        <f t="shared" si="241"/>
+        <v>11</v>
+      </c>
+      <c r="P51" s="33">
+        <f t="shared" si="241"/>
+        <v>11</v>
+      </c>
+      <c r="Q51" s="34">
+        <f t="shared" ref="Q51:R51" si="242">SUM(I51,K51,M51,O51)</f>
+        <v>19</v>
+      </c>
+      <c r="R51" s="34">
+        <f t="shared" si="242"/>
+        <v>19</v>
+      </c>
+      <c r="S51" s="29">
+        <f t="shared" ref="S51:Z51" si="243">SUM(S49:S50)</f>
+        <v>5</v>
+      </c>
+      <c r="T51" s="29">
         <f t="shared" si="243"/>
-        <v>1</v>
-      </c>
-      <c r="F51" s="26">
+        <v>5</v>
+      </c>
+      <c r="U51" s="30">
         <f t="shared" si="243"/>
-        <v>2</v>
-      </c>
-      <c r="G51" s="27">
+        <v>3</v>
+      </c>
+      <c r="V51" s="30">
+        <f t="shared" si="243"/>
+        <v>3</v>
+      </c>
+      <c r="W51" s="31">
+        <f t="shared" si="243"/>
+        <v>4</v>
+      </c>
+      <c r="X51" s="31">
+        <f t="shared" si="243"/>
+        <v>4</v>
+      </c>
+      <c r="Y51" s="33">
         <f t="shared" si="243"/>
         <v>11</v>
       </c>
-      <c r="H51" s="38">
+      <c r="Z51" s="33">
         <f t="shared" si="243"/>
-        <v>19</v>
-      </c>
-      <c r="I51" s="29">
-        <f t="shared" si="243"/>
-        <v>5</v>
-      </c>
-      <c r="J51" s="29">
-        <f t="shared" si="243"/>
-        <v>5</v>
-      </c>
-      <c r="K51" s="30">
-        <f t="shared" si="243"/>
-        <v>1</v>
-      </c>
-      <c r="L51" s="30">
-        <f t="shared" si="243"/>
-        <v>1</v>
-      </c>
-      <c r="M51" s="31">
-        <f t="shared" si="243"/>
-        <v>2</v>
-      </c>
-      <c r="N51" s="31">
-        <f t="shared" si="243"/>
-        <v>2</v>
-      </c>
-      <c r="O51" s="33">
-        <f t="shared" si="243"/>
-        <v>11</v>
-      </c>
-      <c r="P51" s="33">
-        <f t="shared" si="243"/>
-        <v>11</v>
-      </c>
-      <c r="Q51" s="34">
-        <f t="shared" ref="Q51:R51" si="244">SUM(I51,K51,M51,O51)</f>
-        <v>19</v>
-      </c>
-      <c r="R51" s="34">
+        <v>12</v>
+      </c>
+      <c r="AA51" s="34">
+        <f t="shared" ref="AA51:AB51" si="244">SUM(S51,U51,W51,Y51)</f>
+        <v>23</v>
+      </c>
+      <c r="AB51" s="34">
         <f t="shared" si="244"/>
-        <v>19</v>
-      </c>
-      <c r="S51" s="29">
-        <f t="shared" ref="S51:Z51" si="245">SUM(S49:S50)</f>
-        <v>5</v>
-      </c>
-      <c r="T51" s="29">
+        <v>24</v>
+      </c>
+      <c r="AC51" s="29">
+        <f t="shared" ref="AC51:AJ51" si="245">SUM(AC49:AC50)</f>
+        <v>5</v>
+      </c>
+      <c r="AD51" s="29">
         <f t="shared" si="245"/>
         <v>5</v>
       </c>
-      <c r="U51" s="30">
+      <c r="AE51" s="30">
         <f t="shared" si="245"/>
-        <v>3</v>
-      </c>
-      <c r="V51" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="30">
         <f t="shared" si="245"/>
-        <v>3</v>
-      </c>
-      <c r="W51" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="31">
         <f t="shared" si="245"/>
-        <v>4</v>
-      </c>
-      <c r="X51" s="31">
+        <v>2</v>
+      </c>
+      <c r="AH51" s="31">
         <f t="shared" si="245"/>
-        <v>4</v>
-      </c>
-      <c r="Y51" s="33">
+        <v>2</v>
+      </c>
+      <c r="AI51" s="33">
         <f t="shared" si="245"/>
         <v>11</v>
       </c>
-      <c r="Z51" s="33">
+      <c r="AJ51" s="33">
         <f t="shared" si="245"/>
+        <v>11</v>
+      </c>
+      <c r="AK51" s="34">
+        <f t="shared" ref="AK51:AL51" si="246">SUM(AC51,AE51,AG51,AI51)</f>
+        <v>19</v>
+      </c>
+      <c r="AL51" s="34">
+        <f t="shared" si="246"/>
+        <v>19</v>
+      </c>
+      <c r="AM51" s="29">
+        <f t="shared" ref="AM51:AT51" si="247">SUM(AM49:AM50)</f>
+        <v>5</v>
+      </c>
+      <c r="AN51" s="29">
+        <f t="shared" si="247"/>
+        <v>5</v>
+      </c>
+      <c r="AO51" s="30">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="AP51" s="30">
+        <f t="shared" si="247"/>
+        <v>3</v>
+      </c>
+      <c r="AQ51" s="31">
+        <f t="shared" si="247"/>
+        <v>2</v>
+      </c>
+      <c r="AR51" s="31">
+        <f t="shared" si="247"/>
+        <v>4</v>
+      </c>
+      <c r="AS51" s="33">
+        <f t="shared" si="247"/>
         <v>12</v>
       </c>
-      <c r="AA51" s="34">
-        <f t="shared" ref="AA51:AB51" si="246">SUM(S51,U51,W51,Y51)</f>
-        <v>23</v>
-      </c>
-      <c r="AB51" s="34">
-        <f t="shared" si="246"/>
-        <v>24</v>
-      </c>
-      <c r="AC51" s="29">
-        <f t="shared" ref="AC51:AJ51" si="247">SUM(AC49:AC50)</f>
-        <v>5</v>
-      </c>
-      <c r="AD51" s="29">
+      <c r="AT51" s="33">
         <f t="shared" si="247"/>
-        <v>5</v>
-      </c>
-      <c r="AE51" s="30">
-        <f t="shared" si="247"/>
-        <v>1</v>
-      </c>
-      <c r="AF51" s="30">
-        <f t="shared" si="247"/>
-        <v>1</v>
-      </c>
-      <c r="AG51" s="31">
-        <f t="shared" si="247"/>
-        <v>2</v>
-      </c>
-      <c r="AH51" s="31">
-        <f t="shared" si="247"/>
-        <v>2</v>
-      </c>
-      <c r="AI51" s="33">
-        <f t="shared" si="247"/>
-        <v>11</v>
-      </c>
-      <c r="AJ51" s="33">
-        <f t="shared" si="247"/>
-        <v>11</v>
-      </c>
-      <c r="AK51" s="34">
-        <f t="shared" ref="AK51:AL51" si="248">SUM(AC51,AE51,AG51,AI51)</f>
+        <v>12</v>
+      </c>
+      <c r="AU51" s="34">
+        <f t="shared" ref="AU51:AV51" si="248">SUM(AM51,AO51,AQ51,AS51)</f>
         <v>19</v>
       </c>
-      <c r="AL51" s="34">
+      <c r="AV51" s="34">
         <f t="shared" si="248"/>
-        <v>19</v>
-      </c>
-      <c r="AM51" s="29">
-        <f t="shared" ref="AM51:AT51" si="249">SUM(AM49:AM50)</f>
-        <v>5</v>
-      </c>
-      <c r="AN51" s="29">
-        <f t="shared" si="249"/>
-        <v>5</v>
-      </c>
-      <c r="AO51" s="30">
-        <f t="shared" si="249"/>
-        <v>0</v>
-      </c>
-      <c r="AP51" s="30">
-        <f t="shared" si="249"/>
-        <v>3</v>
-      </c>
-      <c r="AQ51" s="31">
-        <f t="shared" si="249"/>
-        <v>2</v>
-      </c>
-      <c r="AR51" s="31">
-        <f t="shared" si="249"/>
-        <v>4</v>
-      </c>
-      <c r="AS51" s="33">
-        <f t="shared" si="249"/>
-        <v>12</v>
-      </c>
-      <c r="AT51" s="33">
-        <f t="shared" si="249"/>
-        <v>12</v>
-      </c>
-      <c r="AU51" s="34">
-        <f t="shared" ref="AU51:AV51" si="250">SUM(AM51,AO51,AQ51,AS51)</f>
-        <v>19</v>
-      </c>
-      <c r="AV51" s="34">
-        <f t="shared" si="250"/>
         <v>24</v>
       </c>
     </row>
@@ -7474,63 +7472,63 @@
         <v>14</v>
       </c>
       <c r="D54" s="53">
-        <f t="shared" ref="D54:G54" si="251">SUM(D49,D44,D39,D34,D29,D24,D19,D14,D9,D4)</f>
+        <f t="shared" ref="D54:G54" si="249">SUM(D49,D44,D39,D34,D29,D24,D19,D14,D9,D4)</f>
         <v>15</v>
       </c>
       <c r="E54" s="54">
+        <f t="shared" si="249"/>
+        <v>4</v>
+      </c>
+      <c r="F54" s="55">
+        <f t="shared" si="249"/>
+        <v>3</v>
+      </c>
+      <c r="G54" s="56">
+        <f t="shared" si="249"/>
+        <v>50</v>
+      </c>
+      <c r="H54" s="28">
+        <f t="shared" ref="H54:H55" si="257">SUM(D54:G54)</f>
+        <v>72</v>
+      </c>
+      <c r="I54" s="36">
+        <f t="shared" ref="I54:P54" si="250">SUM(I49,I44,I39,I34,I29,I24,I19,I14,I4,I9)</f>
+        <v>15</v>
+      </c>
+      <c r="J54" s="36">
+        <f t="shared" si="250"/>
+        <v>15</v>
+      </c>
+      <c r="K54" s="35">
+        <f t="shared" si="250"/>
+        <v>4</v>
+      </c>
+      <c r="L54" s="35">
+        <f t="shared" si="250"/>
+        <v>4</v>
+      </c>
+      <c r="M54" s="51">
+        <f t="shared" si="250"/>
+        <v>3</v>
+      </c>
+      <c r="N54" s="51">
+        <f t="shared" si="250"/>
+        <v>3</v>
+      </c>
+      <c r="O54" s="57">
+        <f t="shared" si="250"/>
+        <v>48</v>
+      </c>
+      <c r="P54" s="57">
+        <f t="shared" si="250"/>
+        <v>50</v>
+      </c>
+      <c r="Q54" s="34">
+        <f t="shared" ref="Q54:R54" si="251">SUM(I54,K54,M54,O54)</f>
+        <v>70</v>
+      </c>
+      <c r="R54" s="34">
         <f t="shared" si="251"/>
-        <v>4</v>
-      </c>
-      <c r="F54" s="55">
-        <f t="shared" si="251"/>
-        <v>3</v>
-      </c>
-      <c r="G54" s="56">
-        <f t="shared" si="251"/>
-        <v>50</v>
-      </c>
-      <c r="H54" s="28">
-        <f t="shared" ref="H54:H55" si="259">SUM(D54:G54)</f>
-        <v>72</v>
-      </c>
-      <c r="I54" s="36">
-        <f t="shared" ref="I54:P54" si="252">SUM(I49,I44,I39,I34,I29,I24,I19,I14,I4,I9)</f>
-        <v>15</v>
-      </c>
-      <c r="J54" s="36">
-        <f t="shared" si="252"/>
-        <v>15</v>
-      </c>
-      <c r="K54" s="35">
-        <f t="shared" si="252"/>
-        <v>4</v>
-      </c>
-      <c r="L54" s="35">
-        <f t="shared" si="252"/>
-        <v>4</v>
-      </c>
-      <c r="M54" s="51">
-        <f t="shared" si="252"/>
-        <v>3</v>
-      </c>
-      <c r="N54" s="51">
-        <f t="shared" si="252"/>
-        <v>3</v>
-      </c>
-      <c r="O54" s="57">
-        <f t="shared" si="252"/>
-        <v>48</v>
-      </c>
-      <c r="P54" s="57">
-        <f t="shared" si="252"/>
-        <v>50</v>
-      </c>
-      <c r="Q54" s="34">
-        <f t="shared" ref="Q54:R54" si="253">SUM(I54,K54,M54,O54)</f>
-        <v>70</v>
-      </c>
-      <c r="R54" s="34">
-        <f t="shared" si="253"/>
         <v>72</v>
       </c>
       <c r="S54" s="36">
@@ -7562,51 +7560,51 @@
         <v>5</v>
       </c>
       <c r="AA54" s="34">
-        <f t="shared" ref="AA54:AB54" si="254">SUM(S54,U54,W54,Y54)</f>
+        <f t="shared" ref="AA54:AB54" si="252">SUM(S54,U54,W54,Y54)</f>
         <v>8</v>
       </c>
       <c r="AB54" s="34">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="AC54" s="36">
+        <f t="shared" ref="AC54:AJ54" si="253">SUM(AC49,AC44,AC39,AC34,AC29,AC24,AC19,AC14,AC4,AC9)</f>
+        <v>15</v>
+      </c>
+      <c r="AD54" s="36">
+        <f t="shared" si="253"/>
+        <v>15</v>
+      </c>
+      <c r="AE54" s="35">
+        <f t="shared" si="253"/>
+        <v>4</v>
+      </c>
+      <c r="AF54" s="35">
+        <f t="shared" si="253"/>
+        <v>4</v>
+      </c>
+      <c r="AG54" s="51">
+        <f t="shared" si="253"/>
+        <v>3</v>
+      </c>
+      <c r="AH54" s="51">
+        <f t="shared" si="253"/>
+        <v>3</v>
+      </c>
+      <c r="AI54" s="57">
+        <f t="shared" si="253"/>
+        <v>50</v>
+      </c>
+      <c r="AJ54" s="57">
+        <f t="shared" si="253"/>
+        <v>50</v>
+      </c>
+      <c r="AK54" s="34">
+        <f t="shared" ref="AK54:AL54" si="254">SUM(AC54,AE54,AG54,AI54)</f>
+        <v>72</v>
+      </c>
+      <c r="AL54" s="34">
         <f t="shared" si="254"/>
-        <v>9</v>
-      </c>
-      <c r="AC54" s="36">
-        <f t="shared" ref="AC54:AJ54" si="255">SUM(AC49,AC44,AC39,AC34,AC29,AC24,AC19,AC14,AC4,AC9)</f>
-        <v>15</v>
-      </c>
-      <c r="AD54" s="36">
-        <f t="shared" si="255"/>
-        <v>15</v>
-      </c>
-      <c r="AE54" s="35">
-        <f t="shared" si="255"/>
-        <v>4</v>
-      </c>
-      <c r="AF54" s="35">
-        <f t="shared" si="255"/>
-        <v>4</v>
-      </c>
-      <c r="AG54" s="51">
-        <f t="shared" si="255"/>
-        <v>3</v>
-      </c>
-      <c r="AH54" s="51">
-        <f t="shared" si="255"/>
-        <v>3</v>
-      </c>
-      <c r="AI54" s="57">
-        <f t="shared" si="255"/>
-        <v>50</v>
-      </c>
-      <c r="AJ54" s="57">
-        <f t="shared" si="255"/>
-        <v>50</v>
-      </c>
-      <c r="AK54" s="34">
-        <f t="shared" ref="AK54:AL54" si="256">SUM(AC54,AE54,AG54,AI54)</f>
-        <v>72</v>
-      </c>
-      <c r="AL54" s="34">
-        <f t="shared" si="256"/>
         <v>72</v>
       </c>
       <c r="AM54" s="36">
@@ -7638,11 +7636,11 @@
         <v>5</v>
       </c>
       <c r="AU54" s="34">
-        <f t="shared" ref="AU54:AV54" si="257">SUM(AM54,AO54,AQ54,AS54)</f>
+        <f t="shared" ref="AU54:AV54" si="255">SUM(AM54,AO54,AQ54,AS54)</f>
         <v>9</v>
       </c>
       <c r="AV54" s="34">
-        <f t="shared" si="257"/>
+        <f t="shared" si="255"/>
         <v>9</v>
       </c>
     </row>
@@ -7651,64 +7649,64 @@
         <v>15</v>
       </c>
       <c r="D55" s="53">
-        <f t="shared" ref="D55:G55" si="258">SUM(D50,D45,D40,D35,D30,D25,D20,D15,D10,D5)</f>
+        <f t="shared" ref="D55:G55" si="256">SUM(D50,D45,D40,D35,D30,D25,D20,D15,D10,D5)</f>
         <v>22</v>
       </c>
       <c r="E55" s="54">
+        <f t="shared" si="256"/>
+        <v>10</v>
+      </c>
+      <c r="F55" s="55">
+        <f t="shared" si="256"/>
+        <v>5</v>
+      </c>
+      <c r="G55" s="56">
+        <f t="shared" si="256"/>
+        <v>68</v>
+      </c>
+      <c r="H55" s="28">
+        <f t="shared" si="257"/>
+        <v>105</v>
+      </c>
+      <c r="I55" s="36">
+        <f t="shared" ref="I55:P55" si="258">SUM(I50,I45,I40,I35,I30,I25,I20,I15,I5,I10)</f>
+        <v>22</v>
+      </c>
+      <c r="J55" s="36">
+        <f t="shared" si="258"/>
+        <v>22</v>
+      </c>
+      <c r="K55" s="35">
         <f t="shared" si="258"/>
         <v>10</v>
       </c>
-      <c r="F55" s="55">
+      <c r="L55" s="35">
         <f t="shared" si="258"/>
-        <v>5</v>
-      </c>
-      <c r="G55" s="56">
+        <v>10</v>
+      </c>
+      <c r="M55" s="51">
+        <f t="shared" si="258"/>
+        <v>7</v>
+      </c>
+      <c r="N55" s="51">
+        <f t="shared" si="258"/>
+        <v>7</v>
+      </c>
+      <c r="O55" s="57">
         <f t="shared" si="258"/>
         <v>68</v>
       </c>
-      <c r="H55" s="28">
+      <c r="P55" s="57">
+        <f t="shared" si="258"/>
+        <v>68</v>
+      </c>
+      <c r="Q55" s="34">
+        <f t="shared" ref="Q55:R55" si="259">SUM(I55,K55,M55,O55)</f>
+        <v>107</v>
+      </c>
+      <c r="R55" s="34">
         <f t="shared" si="259"/>
-        <v>105</v>
-      </c>
-      <c r="I55" s="36">
-        <f t="shared" ref="I55:P55" si="260">SUM(I50,I45,I40,I35,I30,I25,I20,I15,I5,I10)</f>
-        <v>22</v>
-      </c>
-      <c r="J55" s="36">
-        <f t="shared" si="260"/>
-        <v>22</v>
-      </c>
-      <c r="K55" s="35">
-        <f t="shared" si="260"/>
-        <v>10</v>
-      </c>
-      <c r="L55" s="35">
-        <f t="shared" si="260"/>
-        <v>10</v>
-      </c>
-      <c r="M55" s="51">
-        <f t="shared" si="260"/>
-        <v>5</v>
-      </c>
-      <c r="N55" s="51">
-        <f t="shared" si="260"/>
-        <v>5</v>
-      </c>
-      <c r="O55" s="57">
-        <f t="shared" si="260"/>
-        <v>68</v>
-      </c>
-      <c r="P55" s="57">
-        <f t="shared" si="260"/>
-        <v>68</v>
-      </c>
-      <c r="Q55" s="34">
-        <f t="shared" ref="Q55:R55" si="261">SUM(I55,K55,M55,O55)</f>
-        <v>105</v>
-      </c>
-      <c r="R55" s="34">
-        <f t="shared" si="261"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S55" s="36">
         <v>3.0</v>
@@ -7739,52 +7737,52 @@
         <v>7</v>
       </c>
       <c r="AA55" s="34">
-        <f t="shared" ref="AA55:AB55" si="262">SUM(S55,U55,W55,Y55)</f>
+        <f t="shared" ref="AA55:AB55" si="260">SUM(S55,U55,W55,Y55)</f>
         <v>15</v>
       </c>
       <c r="AB55" s="34">
+        <f t="shared" si="260"/>
+        <v>15</v>
+      </c>
+      <c r="AC55" s="36">
+        <f t="shared" ref="AC55:AJ55" si="261">SUM(AC50,AC45,AC40,AC35,AC30,AC25,AC20,AC15,AC5,AC10)</f>
+        <v>22</v>
+      </c>
+      <c r="AD55" s="36">
+        <f t="shared" si="261"/>
+        <v>22</v>
+      </c>
+      <c r="AE55" s="35">
+        <f t="shared" si="261"/>
+        <v>10</v>
+      </c>
+      <c r="AF55" s="35">
+        <f t="shared" si="261"/>
+        <v>10</v>
+      </c>
+      <c r="AG55" s="51">
+        <f t="shared" si="261"/>
+        <v>7</v>
+      </c>
+      <c r="AH55" s="51">
+        <f t="shared" si="261"/>
+        <v>7</v>
+      </c>
+      <c r="AI55" s="57">
+        <f t="shared" si="261"/>
+        <v>66</v>
+      </c>
+      <c r="AJ55" s="57">
+        <f t="shared" si="261"/>
+        <v>68</v>
+      </c>
+      <c r="AK55" s="34">
+        <f t="shared" ref="AK55:AL55" si="262">SUM(AC55,AE55,AG55,AI55)</f>
+        <v>105</v>
+      </c>
+      <c r="AL55" s="34">
         <f t="shared" si="262"/>
-        <v>15</v>
-      </c>
-      <c r="AC55" s="36">
-        <f t="shared" ref="AC55:AJ55" si="263">SUM(AC50,AC45,AC40,AC35,AC30,AC25,AC20,AC15,AC5,AC10)</f>
-        <v>22</v>
-      </c>
-      <c r="AD55" s="36">
-        <f t="shared" si="263"/>
-        <v>22</v>
-      </c>
-      <c r="AE55" s="35">
-        <f t="shared" si="263"/>
-        <v>10</v>
-      </c>
-      <c r="AF55" s="35">
-        <f t="shared" si="263"/>
-        <v>10</v>
-      </c>
-      <c r="AG55" s="51">
-        <f t="shared" si="263"/>
-        <v>5</v>
-      </c>
-      <c r="AH55" s="51">
-        <f t="shared" si="263"/>
-        <v>5</v>
-      </c>
-      <c r="AI55" s="57">
-        <f t="shared" si="263"/>
-        <v>66</v>
-      </c>
-      <c r="AJ55" s="57">
-        <f t="shared" si="263"/>
-        <v>68</v>
-      </c>
-      <c r="AK55" s="34">
-        <f t="shared" ref="AK55:AL55" si="264">SUM(AC55,AE55,AG55,AI55)</f>
-        <v>103</v>
-      </c>
-      <c r="AL55" s="34">
-        <f t="shared" si="264"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AM55" s="36">
         <v>3.0</v>
@@ -7815,11 +7813,11 @@
         <v>7</v>
       </c>
       <c r="AU55" s="34">
-        <f t="shared" ref="AU55:AV55" si="265">SUM(AM55,AO55,AQ55,AS55)</f>
+        <f t="shared" ref="AU55:AV55" si="263">SUM(AM55,AO55,AQ55,AS55)</f>
         <v>15</v>
       </c>
       <c r="AV55" s="34">
-        <f t="shared" si="265"/>
+        <f t="shared" si="263"/>
         <v>15</v>
       </c>
     </row>
@@ -7828,183 +7826,183 @@
         <v>8</v>
       </c>
       <c r="D56" s="24">
-        <f t="shared" ref="D56:H56" si="266">SUM(D54:D55)</f>
+        <f t="shared" ref="D56:H56" si="264">SUM(D54:D55)</f>
         <v>37</v>
       </c>
       <c r="E56" s="25">
+        <f t="shared" si="264"/>
+        <v>14</v>
+      </c>
+      <c r="F56" s="26">
+        <f t="shared" si="264"/>
+        <v>8</v>
+      </c>
+      <c r="G56" s="27">
+        <f t="shared" si="264"/>
+        <v>118</v>
+      </c>
+      <c r="H56" s="38">
+        <f t="shared" si="264"/>
+        <v>177</v>
+      </c>
+      <c r="I56" s="36">
+        <f t="shared" ref="I56:P56" si="265">SUM(I51,I46,I41,I36,I31,I26,I21,I16,I6,I11)</f>
+        <v>37</v>
+      </c>
+      <c r="J56" s="36">
+        <f t="shared" si="265"/>
+        <v>37</v>
+      </c>
+      <c r="K56" s="35">
+        <f t="shared" si="265"/>
+        <v>14</v>
+      </c>
+      <c r="L56" s="35">
+        <f t="shared" si="265"/>
+        <v>14</v>
+      </c>
+      <c r="M56" s="51">
+        <f t="shared" si="265"/>
+        <v>10</v>
+      </c>
+      <c r="N56" s="51">
+        <f t="shared" si="265"/>
+        <v>10</v>
+      </c>
+      <c r="O56" s="57">
+        <f t="shared" si="265"/>
+        <v>116</v>
+      </c>
+      <c r="P56" s="57">
+        <f t="shared" si="265"/>
+        <v>118</v>
+      </c>
+      <c r="Q56" s="34">
+        <f t="shared" ref="Q56:R56" si="266">SUM(I56,K56,M56,O56)</f>
+        <v>177</v>
+      </c>
+      <c r="R56" s="34">
         <f t="shared" si="266"/>
+        <v>179</v>
+      </c>
+      <c r="S56" s="29">
+        <f t="shared" ref="S56:Z56" si="267">SUM(S54:S55)</f>
+        <v>5</v>
+      </c>
+      <c r="T56" s="29">
+        <f t="shared" si="267"/>
+        <v>5</v>
+      </c>
+      <c r="U56" s="30">
+        <f t="shared" si="267"/>
+        <v>3</v>
+      </c>
+      <c r="V56" s="30">
+        <f t="shared" si="267"/>
+        <v>3</v>
+      </c>
+      <c r="W56" s="31">
+        <f t="shared" si="267"/>
+        <v>4</v>
+      </c>
+      <c r="X56" s="31">
+        <f t="shared" si="267"/>
+        <v>4</v>
+      </c>
+      <c r="Y56" s="33">
+        <f t="shared" si="267"/>
+        <v>11</v>
+      </c>
+      <c r="Z56" s="33">
+        <f t="shared" si="267"/>
+        <v>12</v>
+      </c>
+      <c r="AA56" s="34">
+        <f t="shared" ref="AA56:AB56" si="268">SUM(S56,U56,W56,Y56)</f>
+        <v>23</v>
+      </c>
+      <c r="AB56" s="34">
+        <f t="shared" si="268"/>
+        <v>24</v>
+      </c>
+      <c r="AC56" s="36">
+        <f t="shared" ref="AC56:AJ56" si="269">SUM(AC51,AC46,AC41,AC36,AC31,AC26,AC21,AC16,AC6,AC11)</f>
+        <v>37</v>
+      </c>
+      <c r="AD56" s="36">
+        <f t="shared" si="269"/>
+        <v>37</v>
+      </c>
+      <c r="AE56" s="35">
+        <f t="shared" si="269"/>
         <v>14</v>
       </c>
-      <c r="F56" s="26">
-        <f t="shared" si="266"/>
-        <v>8</v>
-      </c>
-      <c r="G56" s="27">
-        <f t="shared" si="266"/>
+      <c r="AF56" s="35">
+        <f t="shared" si="269"/>
+        <v>14</v>
+      </c>
+      <c r="AG56" s="51">
+        <f t="shared" si="269"/>
+        <v>10</v>
+      </c>
+      <c r="AH56" s="51">
+        <f t="shared" si="269"/>
+        <v>10</v>
+      </c>
+      <c r="AI56" s="57">
+        <f t="shared" si="269"/>
+        <v>116</v>
+      </c>
+      <c r="AJ56" s="57">
+        <f t="shared" si="269"/>
         <v>118</v>
       </c>
-      <c r="H56" s="38">
-        <f t="shared" si="266"/>
+      <c r="AK56" s="34">
+        <f t="shared" ref="AK56:AL56" si="270">SUM(AC56,AE56,AG56,AI56)</f>
         <v>177</v>
       </c>
-      <c r="I56" s="36">
-        <f t="shared" ref="I56:P56" si="267">SUM(I51,I46,I41,I36,I31,I26,I21,I16,I6,I11)</f>
-        <v>37</v>
-      </c>
-      <c r="J56" s="36">
-        <f t="shared" si="267"/>
-        <v>37</v>
-      </c>
-      <c r="K56" s="35">
-        <f t="shared" si="267"/>
-        <v>14</v>
-      </c>
-      <c r="L56" s="35">
-        <f t="shared" si="267"/>
-        <v>14</v>
-      </c>
-      <c r="M56" s="51">
-        <f t="shared" si="267"/>
-        <v>8</v>
-      </c>
-      <c r="N56" s="51">
-        <f t="shared" si="267"/>
-        <v>8</v>
-      </c>
-      <c r="O56" s="57">
-        <f t="shared" si="267"/>
-        <v>116</v>
-      </c>
-      <c r="P56" s="57">
-        <f t="shared" si="267"/>
-        <v>118</v>
-      </c>
-      <c r="Q56" s="34">
-        <f t="shared" ref="Q56:R56" si="268">SUM(I56,K56,M56,O56)</f>
-        <v>175</v>
-      </c>
-      <c r="R56" s="34">
-        <f t="shared" si="268"/>
-        <v>177</v>
-      </c>
-      <c r="S56" s="29">
-        <f t="shared" ref="S56:Z56" si="269">SUM(S54:S55)</f>
-        <v>5</v>
-      </c>
-      <c r="T56" s="29">
-        <f t="shared" si="269"/>
-        <v>5</v>
-      </c>
-      <c r="U56" s="30">
-        <f t="shared" si="269"/>
-        <v>3</v>
-      </c>
-      <c r="V56" s="30">
-        <f t="shared" si="269"/>
-        <v>3</v>
-      </c>
-      <c r="W56" s="31">
-        <f t="shared" si="269"/>
+      <c r="AL56" s="34">
+        <f t="shared" si="270"/>
+        <v>179</v>
+      </c>
+      <c r="AM56" s="29">
+        <f t="shared" ref="AM56:AT56" si="271">SUM(AM54:AM55)</f>
+        <v>5</v>
+      </c>
+      <c r="AN56" s="29">
+        <f t="shared" si="271"/>
+        <v>5</v>
+      </c>
+      <c r="AO56" s="30">
+        <f t="shared" si="271"/>
+        <v>3</v>
+      </c>
+      <c r="AP56" s="30">
+        <f t="shared" si="271"/>
+        <v>3</v>
+      </c>
+      <c r="AQ56" s="31">
+        <f t="shared" si="271"/>
         <v>4</v>
       </c>
-      <c r="X56" s="31">
-        <f t="shared" si="269"/>
+      <c r="AR56" s="31">
+        <f t="shared" si="271"/>
         <v>4</v>
       </c>
-      <c r="Y56" s="33">
-        <f t="shared" si="269"/>
-        <v>11</v>
-      </c>
-      <c r="Z56" s="33">
-        <f t="shared" si="269"/>
+      <c r="AS56" s="33">
+        <f t="shared" si="271"/>
         <v>12</v>
       </c>
-      <c r="AA56" s="34">
-        <f t="shared" ref="AA56:AB56" si="270">SUM(S56,U56,W56,Y56)</f>
-        <v>23</v>
-      </c>
-      <c r="AB56" s="34">
-        <f t="shared" si="270"/>
+      <c r="AT56" s="33">
+        <f t="shared" si="271"/>
+        <v>12</v>
+      </c>
+      <c r="AU56" s="34">
+        <f t="shared" ref="AU56:AV56" si="272">SUM(AM56,AO56,AQ56,AS56)</f>
         <v>24</v>
       </c>
-      <c r="AC56" s="36">
-        <f t="shared" ref="AC56:AJ56" si="271">SUM(AC51,AC46,AC41,AC36,AC31,AC26,AC21,AC16,AC6,AC11)</f>
-        <v>37</v>
-      </c>
-      <c r="AD56" s="36">
-        <f t="shared" si="271"/>
-        <v>37</v>
-      </c>
-      <c r="AE56" s="35">
-        <f t="shared" si="271"/>
-        <v>14</v>
-      </c>
-      <c r="AF56" s="35">
-        <f t="shared" si="271"/>
-        <v>14</v>
-      </c>
-      <c r="AG56" s="51">
-        <f t="shared" si="271"/>
-        <v>8</v>
-      </c>
-      <c r="AH56" s="51">
-        <f t="shared" si="271"/>
-        <v>8</v>
-      </c>
-      <c r="AI56" s="57">
-        <f t="shared" si="271"/>
-        <v>116</v>
-      </c>
-      <c r="AJ56" s="57">
-        <f t="shared" si="271"/>
-        <v>118</v>
-      </c>
-      <c r="AK56" s="34">
-        <f t="shared" ref="AK56:AL56" si="272">SUM(AC56,AE56,AG56,AI56)</f>
-        <v>175</v>
-      </c>
-      <c r="AL56" s="34">
+      <c r="AV56" s="34">
         <f t="shared" si="272"/>
-        <v>177</v>
-      </c>
-      <c r="AM56" s="29">
-        <f t="shared" ref="AM56:AT56" si="273">SUM(AM54:AM55)</f>
-        <v>5</v>
-      </c>
-      <c r="AN56" s="29">
-        <f t="shared" si="273"/>
-        <v>5</v>
-      </c>
-      <c r="AO56" s="30">
-        <f t="shared" si="273"/>
-        <v>3</v>
-      </c>
-      <c r="AP56" s="30">
-        <f t="shared" si="273"/>
-        <v>3</v>
-      </c>
-      <c r="AQ56" s="31">
-        <f t="shared" si="273"/>
-        <v>4</v>
-      </c>
-      <c r="AR56" s="31">
-        <f t="shared" si="273"/>
-        <v>4</v>
-      </c>
-      <c r="AS56" s="33">
-        <f t="shared" si="273"/>
-        <v>12</v>
-      </c>
-      <c r="AT56" s="33">
-        <f t="shared" si="273"/>
-        <v>12</v>
-      </c>
-      <c r="AU56" s="34">
-        <f t="shared" ref="AU56:AV56" si="274">SUM(AM56,AO56,AQ56,AS56)</f>
-        <v>24</v>
-      </c>
-      <c r="AV56" s="34">
-        <f t="shared" si="274"/>
         <v>24</v>
       </c>
     </row>
@@ -8035,7 +8033,7 @@
       </c>
       <c r="Q57" s="45">
         <f>Q56/MAX(1,R56)</f>
-        <v>0.988700565</v>
+        <v>0.9888268156</v>
       </c>
       <c r="S57" s="41">
         <f>S56/MAX(1,T56)</f>
@@ -8075,7 +8073,7 @@
       </c>
       <c r="AK57" s="45">
         <f>AK56/MAX(1,AL56)</f>
-        <v>0.988700565</v>
+        <v>0.9888268156</v>
       </c>
       <c r="AM57" s="41">
         <f>AM56/MAX(1,AN56)</f>
@@ -8135,7 +8133,7 @@
         <v>5.0</v>
       </c>
       <c r="H59" s="28">
-        <f t="shared" ref="H59:H60" si="275">SUM(D59:G59)</f>
+        <f t="shared" ref="H59:H60" si="273">SUM(D59:G59)</f>
         <v>9</v>
       </c>
     </row>
@@ -8156,7 +8154,7 @@
         <v>7.0</v>
       </c>
       <c r="H60" s="38">
-        <f t="shared" si="275"/>
+        <f t="shared" si="273"/>
         <v>15</v>
       </c>
     </row>
@@ -8165,23 +8163,23 @@
         <v>8</v>
       </c>
       <c r="D61" s="62">
-        <f t="shared" ref="D61:H61" si="276">SUM(D59:D60)</f>
+        <f t="shared" ref="D61:H61" si="274">SUM(D59:D60)</f>
         <v>5</v>
       </c>
       <c r="E61" s="63">
-        <f t="shared" si="276"/>
+        <f t="shared" si="274"/>
         <v>3</v>
       </c>
       <c r="F61" s="64">
-        <f t="shared" si="276"/>
+        <f t="shared" si="274"/>
         <v>4</v>
       </c>
       <c r="G61" s="65">
-        <f t="shared" si="276"/>
+        <f t="shared" si="274"/>
         <v>12</v>
       </c>
       <c r="H61" s="66">
-        <f t="shared" si="276"/>
+        <f t="shared" si="274"/>
         <v>24</v>
       </c>
     </row>
